--- a/Code/Results/Cases/Case_5_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.459383497889178</v>
+        <v>4.08391004843844</v>
       </c>
       <c r="C2">
-        <v>0.4014539882235511</v>
+        <v>0.7824095879817889</v>
       </c>
       <c r="D2">
-        <v>0.1889018297149931</v>
+        <v>0.06695429021716137</v>
       </c>
       <c r="E2">
-        <v>0.1191439980092426</v>
+        <v>0.03374457810037512</v>
       </c>
       <c r="F2">
-        <v>6.564809234158417</v>
+        <v>2.590444526255254</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,36 +445,42 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1833758243248518</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6194748911621275</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2293664511168956</v>
+        <v>0.1494388809187015</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.6254142580026922</v>
+      </c>
+      <c r="N2">
+        <v>1.396008983703453</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.108648782507146</v>
+        <v>3.546489984438551</v>
       </c>
       <c r="C3">
-        <v>0.3421855040088246</v>
+        <v>0.6739081575260855</v>
       </c>
       <c r="D3">
-        <v>0.1679181841930983</v>
+        <v>0.06764431848201014</v>
       </c>
       <c r="E3">
-        <v>0.1027500612095125</v>
+        <v>0.03217747386881875</v>
       </c>
       <c r="F3">
-        <v>5.777278036599256</v>
+        <v>2.340320051600045</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,36 +492,42 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1597571047095414</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5297346054874552</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1963081594352616</v>
+        <v>0.135187398234109</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.546104263637055</v>
+      </c>
+      <c r="N3">
+        <v>1.421022940004704</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.899414226618319</v>
+        <v>3.223410479770394</v>
       </c>
       <c r="C4">
-        <v>0.3068358267107385</v>
+        <v>0.6083647429719576</v>
       </c>
       <c r="D4">
-        <v>0.1553621864464105</v>
+        <v>0.06820165381999743</v>
       </c>
       <c r="E4">
-        <v>0.09297544141632486</v>
+        <v>0.03122775428962932</v>
       </c>
       <c r="F4">
-        <v>5.306380146406724</v>
+        <v>2.192596101961399</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -521,36 +539,42 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1456496306477923</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.476200294613335</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1765942702946575</v>
+        <v>0.1266995785211051</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4984878254004812</v>
+      </c>
+      <c r="N4">
+        <v>1.438550607952138</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.815464527380186</v>
+        <v>3.093261595361469</v>
       </c>
       <c r="C5">
-        <v>0.2926491869044128</v>
+        <v>0.5818800420459809</v>
       </c>
       <c r="D5">
-        <v>0.1503135934705568</v>
+        <v>0.06845989427805677</v>
       </c>
       <c r="E5">
-        <v>0.08905493858281588</v>
+        <v>0.0308430494443499</v>
       </c>
       <c r="F5">
-        <v>5.117190564835141</v>
+        <v>2.133713148910928</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -562,36 +586,42 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1399853117693226</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4547197029765258</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1686855318524429</v>
+        <v>0.1233002899552389</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4793216937269165</v>
+      </c>
+      <c r="N5">
+        <v>1.446204127764005</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.801598127155614</v>
+        <v>3.071735374679406</v>
       </c>
       <c r="C6">
-        <v>0.2903055455039123</v>
+        <v>0.5774945905363325</v>
       </c>
       <c r="D6">
-        <v>0.1494789989394008</v>
+        <v>0.06850458672302651</v>
       </c>
       <c r="E6">
-        <v>0.0884074459792501</v>
+        <v>0.03077928675175201</v>
       </c>
       <c r="F6">
-        <v>5.085926244974758</v>
+        <v>2.124010853961309</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -603,36 +633,42 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1390494685455863</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4511715131436773</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1673792354682782</v>
+        <v>0.1227392599113628</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4761526177224411</v>
+      </c>
+      <c r="N6">
+        <v>1.447504894000105</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.898277003380372</v>
+        <v>3.221649421638858</v>
       </c>
       <c r="C7">
-        <v>0.3066436688212093</v>
+        <v>0.6080067085872258</v>
       </c>
       <c r="D7">
-        <v>0.155293841598521</v>
+        <v>0.06820501362997433</v>
       </c>
       <c r="E7">
-        <v>0.09292232717382376</v>
+        <v>0.03122255768568039</v>
       </c>
       <c r="F7">
-        <v>5.303818307127017</v>
+        <v>2.191796854351381</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -644,36 +680,42 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1455729152846956</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4759093159514052</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1764871321041639</v>
+        <v>0.1266535014839718</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4982284230487295</v>
+      </c>
+      <c r="N7">
+        <v>1.438651800879811</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.337037367386358</v>
+        <v>3.897032819330377</v>
       </c>
       <c r="C8">
-        <v>0.3807743153976446</v>
+        <v>0.7447456283334475</v>
       </c>
       <c r="D8">
-        <v>0.1815893764070893</v>
+        <v>0.06716289103613349</v>
       </c>
       <c r="E8">
-        <v>0.1134241725644891</v>
+        <v>0.03320112110243922</v>
       </c>
       <c r="F8">
-        <v>6.290339260839374</v>
+        <v>2.502887985097061</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -685,36 +727,42 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.175140868915431</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5881695838310392</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2178326238111623</v>
+        <v>0.1444663660746528</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.5978226786220588</v>
+      </c>
+      <c r="N8">
+        <v>1.404161766133953</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.25770200131916</v>
+        <v>5.287678490689416</v>
       </c>
       <c r="C9">
-        <v>0.5366893788249456</v>
+        <v>1.023781901534761</v>
       </c>
       <c r="D9">
-        <v>0.2365090748462109</v>
+        <v>0.06630740832747506</v>
       </c>
       <c r="E9">
-        <v>0.1564904095068584</v>
+        <v>0.03722306214960369</v>
       </c>
       <c r="F9">
-        <v>8.35006221603544</v>
+        <v>3.167301322499839</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -726,36 +774,42 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2370165988362345</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8238332659351357</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3047015282027559</v>
+        <v>0.18180906654311</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.8034070965811537</v>
+      </c>
+      <c r="N9">
+        <v>1.355486584220642</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.990339272613596</v>
+        <v>6.368063447882889</v>
       </c>
       <c r="C10">
-        <v>0.6614967249992958</v>
+        <v>1.239190012231859</v>
       </c>
       <c r="D10">
-        <v>0.280146366406214</v>
+        <v>0.0666096500504878</v>
       </c>
       <c r="E10">
-        <v>0.19079018632074</v>
+        <v>0.04033474061218811</v>
       </c>
       <c r="F10">
-        <v>9.980598456585767</v>
+        <v>3.701202916202561</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -767,36 +821,42 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2861126052652097</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.01159148341209</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3739811629853449</v>
+        <v>0.2112348082352327</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.9634395609424047</v>
+      </c>
+      <c r="N10">
+        <v>1.334069455058739</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.341355749055424</v>
+        <v>6.877152585804367</v>
       </c>
       <c r="C11">
-        <v>0.721596959630773</v>
+        <v>1.340447229297013</v>
       </c>
       <c r="D11">
-        <v>0.301061423079716</v>
+        <v>0.06700541883885336</v>
       </c>
       <c r="E11">
-        <v>0.20722922523656</v>
+        <v>0.04180368687297076</v>
       </c>
       <c r="F11">
-        <v>10.75931190611959</v>
+        <v>3.957371551690613</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -808,36 +868,42 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3095919291303915</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.101642680633375</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4072293998295464</v>
+        <v>0.225190248814215</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.038915093212346</v>
+      </c>
+      <c r="N11">
+        <v>1.328183962931263</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.47740681867873</v>
+        <v>7.072943985451559</v>
       </c>
       <c r="C12">
-        <v>0.7449498122265652</v>
+        <v>1.379360378235845</v>
       </c>
       <c r="D12">
-        <v>0.309171060413405</v>
+        <v>0.06719812750696974</v>
       </c>
       <c r="E12">
-        <v>0.2136015226639003</v>
+        <v>0.04236959698302201</v>
       </c>
       <c r="F12">
-        <v>11.06070595981879</v>
+        <v>4.056619149722081</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -849,36 +915,42 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3186847630277114</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.136563905323115</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4201263659080539</v>
+        <v>0.2305701306061536</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.06795160373386</v>
+      </c>
+      <c r="N12">
+        <v>1.326584168697579</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.447956082882001</v>
+        <v>7.030634507898867</v>
       </c>
       <c r="C13">
-        <v>0.739891801411062</v>
+        <v>1.370952659517286</v>
       </c>
       <c r="D13">
-        <v>0.3074154091407451</v>
+        <v>0.06715461738826889</v>
       </c>
       <c r="E13">
-        <v>0.2122220961850445</v>
+        <v>0.04224725353823011</v>
       </c>
       <c r="F13">
-        <v>10.99548399669004</v>
+        <v>4.035138860214829</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -890,36 +962,42 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3167168128570026</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.129003682176972</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4173340891564692</v>
+        <v>0.2294070054877864</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.06167656411877</v>
+      </c>
+      <c r="N13">
+        <v>1.326899430784721</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.352482292213097</v>
+        <v>6.893197128112206</v>
       </c>
       <c r="C14">
-        <v>0.7235055468142946</v>
+        <v>1.343636601499554</v>
       </c>
       <c r="D14">
-        <v>0.301724572035539</v>
+        <v>0.06702037830997654</v>
       </c>
       <c r="E14">
-        <v>0.2077503529895139</v>
+        <v>0.04185003861444692</v>
       </c>
       <c r="F14">
-        <v>10.78396952648518</v>
+        <v>3.96548969709275</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -931,36 +1009,42 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3103357192856961</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.104498221751996</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4082839233133484</v>
+        <v>0.2256308620172121</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.041294369390748</v>
+      </c>
+      <c r="N14">
+        <v>1.328039274620139</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.294428555998024</v>
+        <v>6.809420242113049</v>
       </c>
       <c r="C15">
-        <v>0.7135497583301174</v>
+        <v>1.32698208577807</v>
       </c>
       <c r="D15">
-        <v>0.2982646706239791</v>
+        <v>0.06694391809676858</v>
       </c>
       <c r="E15">
-        <v>0.2050313477454608</v>
+        <v>0.04160805461489225</v>
       </c>
       <c r="F15">
-        <v>10.65529857337452</v>
+        <v>3.923130254159446</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -972,36 +1056,42 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3064546163780406</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.089599935267543</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4027822760080539</v>
+        <v>0.2233307016435901</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.028871302444514</v>
+      </c>
+      <c r="N15">
+        <v>1.328821771145215</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.967803154916908</v>
+        <v>6.335186900718213</v>
       </c>
       <c r="C16">
-        <v>0.6576452983938736</v>
+        <v>1.23264649933617</v>
       </c>
       <c r="D16">
-        <v>0.2788038878165082</v>
+        <v>0.06658944809483813</v>
       </c>
       <c r="E16">
-        <v>0.1897348591566441</v>
+        <v>0.04023997695396275</v>
       </c>
       <c r="F16">
-        <v>9.930548476072374</v>
+        <v>3.684756299282839</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1013,36 +1103,42 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2846042186580959</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.005812190842136</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3718478163267562</v>
+        <v>0.2103353452733216</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9585667101865951</v>
+      </c>
+      <c r="N16">
+        <v>1.334537787625422</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.772346900300136</v>
+        <v>6.049089234189864</v>
       </c>
       <c r="C17">
-        <v>0.6242763246485481</v>
+        <v>1.175677352487128</v>
       </c>
       <c r="D17">
-        <v>0.2671616353399173</v>
+        <v>0.06644190164374209</v>
       </c>
       <c r="E17">
-        <v>0.1805825768104157</v>
+        <v>0.03941568275655172</v>
       </c>
       <c r="F17">
-        <v>9.49618532513577</v>
+        <v>3.542146049896587</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1054,36 +1150,42 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2715171152921059</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9556989294062959</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3533515194376662</v>
+        <v>0.2025178861861576</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9161695478400418</v>
+      </c>
+      <c r="N17">
+        <v>1.339081583296348</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.661554235021413</v>
+        <v>5.886159068804773</v>
       </c>
       <c r="C18">
-        <v>0.6053880801404716</v>
+        <v>1.143210906982858</v>
       </c>
       <c r="D18">
-        <v>0.2605629193177492</v>
+        <v>0.06638095392628429</v>
       </c>
       <c r="E18">
-        <v>0.1753952028240278</v>
+        <v>0.0389464627062619</v>
       </c>
       <c r="F18">
-        <v>9.249747320490769</v>
+        <v>3.461349186111363</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1095,36 +1197,42 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2640949553552119</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9273008977349946</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3428719607273081</v>
+        <v>0.1980741898084943</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8920308773755465</v>
+      </c>
+      <c r="N18">
+        <v>1.342053047624105</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.624305724946112</v>
+        <v>5.831259547298146</v>
       </c>
       <c r="C19">
-        <v>0.5990420347644374</v>
+        <v>1.132267193320104</v>
       </c>
       <c r="D19">
-        <v>0.2583444749324855</v>
+        <v>0.06636426765278003</v>
       </c>
       <c r="E19">
-        <v>0.1736512987135654</v>
+        <v>0.03878837872424334</v>
       </c>
       <c r="F19">
-        <v>9.166858324312045</v>
+        <v>3.434194543674153</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1136,36 +1244,42 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2615989974589326</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9177547655720701</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3393495135002809</v>
+        <v>0.1965783060404647</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8838983858911362</v>
+      </c>
+      <c r="N19">
+        <v>1.343118543102364</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.792981186597899</v>
+        <v>6.079373346257682</v>
       </c>
       <c r="C20">
-        <v>0.6277962105907022</v>
+        <v>1.181710023608218</v>
       </c>
       <c r="D20">
-        <v>0.2683906307103427</v>
+        <v>0.06645509467463739</v>
       </c>
       <c r="E20">
-        <v>0.1815487287649447</v>
+        <v>0.03950291081684831</v>
       </c>
       <c r="F20">
-        <v>9.542064631803783</v>
+        <v>3.557197748031257</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1177,36 +1291,42 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2728991279165953</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9609884918037039</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3553036453974983</v>
+        <v>0.2033445233248443</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9206567502949454</v>
+      </c>
+      <c r="N20">
+        <v>1.338560336547559</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.380435118990476</v>
+        <v>6.933479940288919</v>
       </c>
       <c r="C21">
-        <v>0.7283014064792042</v>
+        <v>1.351643667536507</v>
       </c>
       <c r="D21">
-        <v>0.3033906347845772</v>
+        <v>0.06705859452419105</v>
       </c>
       <c r="E21">
-        <v>0.2090595739999657</v>
+        <v>0.04196643080172713</v>
       </c>
       <c r="F21">
-        <v>10.84590894853716</v>
+        <v>3.98588360118589</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1218,36 +1338,42 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3122041925263375</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.111672402886086</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4109333362975391</v>
+        <v>0.2267373050014356</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.047268131129698</v>
+      </c>
+      <c r="N21">
+        <v>1.327686755155753</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.782971936907813</v>
+        <v>7.509513487578602</v>
       </c>
       <c r="C22">
-        <v>0.7975248760847649</v>
+        <v>1.466081621425133</v>
       </c>
       <c r="D22">
-        <v>0.3273930101369587</v>
+        <v>0.06770612875949666</v>
       </c>
       <c r="E22">
-        <v>0.2279144309713388</v>
+        <v>0.0436339369312293</v>
       </c>
       <c r="F22">
-        <v>11.73675301669118</v>
+        <v>4.279316416463075</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1259,36 +1385,42 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3390913710940424</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.215034494961643</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.449113873500842</v>
+        <v>0.2425888254286832</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.132712628794202</v>
+      </c>
+      <c r="N22">
+        <v>1.324289592337848</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.56620312390595</v>
+        <v>7.200264451257112</v>
       </c>
       <c r="C23">
-        <v>0.7602098186481783</v>
+        <v>1.404657709460707</v>
       </c>
       <c r="D23">
-        <v>0.3144650990829803</v>
+        <v>0.06733521215836191</v>
       </c>
       <c r="E23">
-        <v>0.2177606836303454</v>
+        <v>0.04273795028060512</v>
       </c>
       <c r="F23">
-        <v>11.25728754961534</v>
+        <v>4.121368964034559</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1300,36 +1432,42 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3246170829721891</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.159361588543149</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4285469647719751</v>
+        <v>0.2340720928951043</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.086836164503424</v>
+      </c>
+      <c r="N23">
+        <v>1.325735539606711</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.783647553448077</v>
+        <v>6.065677102614529</v>
       </c>
       <c r="C24">
-        <v>0.6262039565243356</v>
+        <v>1.178981769843801</v>
       </c>
       <c r="D24">
-        <v>0.2678347099925844</v>
+        <v>0.06644905614657404</v>
       </c>
       <c r="E24">
-        <v>0.1811117017027115</v>
+        <v>0.03946346058431516</v>
       </c>
       <c r="F24">
-        <v>9.521312457857761</v>
+        <v>3.550389187801215</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1341,36 +1479,42 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2722740056465653</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9585958061754525</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.354420613094014</v>
+        <v>0.2029706438463705</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9186273561049347</v>
+      </c>
+      <c r="N24">
+        <v>1.338794878915451</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.000374074808235</v>
+        <v>4.902636348944952</v>
       </c>
       <c r="C25">
-        <v>0.4930269617834426</v>
+        <v>0.9467715602354758</v>
       </c>
       <c r="D25">
-        <v>0.2211768297443939</v>
+        <v>0.06639216504601819</v>
       </c>
       <c r="E25">
-        <v>0.1444483071209</v>
+        <v>0.03611322635879866</v>
       </c>
       <c r="F25">
-        <v>7.775629243361152</v>
+        <v>2.980537126191336</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2197430327153072</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7579394825179691</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2804022066098142</v>
+        <v>0.1713989626067587</v>
       </c>
       <c r="M25">
+        <v>0.7464306642758416</v>
+      </c>
+      <c r="N25">
+        <v>1.366359758734902</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.08391004843844</v>
+        <v>1.883156662534901</v>
       </c>
       <c r="C2">
-        <v>0.7824095879817889</v>
+        <v>0.1125111076106862</v>
       </c>
       <c r="D2">
-        <v>0.06695429021716137</v>
+        <v>0.004023642083991419</v>
       </c>
       <c r="E2">
-        <v>0.03374457810037512</v>
+        <v>0.02834279774381621</v>
       </c>
       <c r="F2">
-        <v>2.590444526255254</v>
+        <v>2.660796483878357</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08411845999868817</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.662928936276586</v>
       </c>
       <c r="L2">
-        <v>0.1494388809187015</v>
+        <v>0.1935893325532803</v>
       </c>
       <c r="M2">
-        <v>0.6254142580026922</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.396008983703453</v>
+        <v>2.557895505571423</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.546489984438551</v>
+        <v>1.687742364386366</v>
       </c>
       <c r="C3">
-        <v>0.6739081575260855</v>
+        <v>0.09698527791631761</v>
       </c>
       <c r="D3">
-        <v>0.06764431848201014</v>
+        <v>0.003583716766382139</v>
       </c>
       <c r="E3">
-        <v>0.03217747386881875</v>
+        <v>0.02742514987814104</v>
       </c>
       <c r="F3">
-        <v>2.340320051600045</v>
+        <v>2.553218824091161</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08341376274221801</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.475619940464014</v>
       </c>
       <c r="L3">
-        <v>0.135187398234109</v>
+        <v>0.1767048262456967</v>
       </c>
       <c r="M3">
-        <v>0.546104263637055</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.421022940004704</v>
+        <v>2.57142611765326</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.223410479770394</v>
+        <v>1.570279477217213</v>
       </c>
       <c r="C4">
-        <v>0.6083647429719576</v>
+        <v>0.08757257733148549</v>
       </c>
       <c r="D4">
-        <v>0.06820165381999743</v>
+        <v>0.003311566114160058</v>
       </c>
       <c r="E4">
-        <v>0.03122775428962932</v>
+        <v>0.02689055517527095</v>
       </c>
       <c r="F4">
-        <v>2.192596101961399</v>
+        <v>2.490652915791856</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08306041284701848</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.362838095217739</v>
       </c>
       <c r="L4">
-        <v>0.1266995785211051</v>
+        <v>0.1665937041058854</v>
       </c>
       <c r="M4">
-        <v>0.4984878254004812</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.438550607952138</v>
+        <v>2.581865807871523</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.093261595361469</v>
+        <v>1.522991739456728</v>
       </c>
       <c r="C5">
-        <v>0.5818800420459809</v>
+        <v>0.0837624572350677</v>
       </c>
       <c r="D5">
-        <v>0.06845989427805677</v>
+        <v>0.003200129121244899</v>
       </c>
       <c r="E5">
-        <v>0.0308430494443499</v>
+        <v>0.02667967591592557</v>
       </c>
       <c r="F5">
-        <v>2.133713148910928</v>
+        <v>2.465980766937051</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.08293563401276316</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.317385623562927</v>
       </c>
       <c r="L5">
-        <v>0.1233002899552389</v>
+        <v>0.1625329916413847</v>
       </c>
       <c r="M5">
-        <v>0.4793216937269165</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.446204127764005</v>
+        <v>2.586634527021218</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.071735374679406</v>
+        <v>1.515173102757956</v>
       </c>
       <c r="C6">
-        <v>0.5774945905363325</v>
+        <v>0.08313120954066733</v>
       </c>
       <c r="D6">
-        <v>0.06850458672302651</v>
+        <v>0.00318159238505622</v>
       </c>
       <c r="E6">
-        <v>0.03077928675175201</v>
+        <v>0.02664507284033313</v>
       </c>
       <c r="F6">
-        <v>2.124010853961309</v>
+        <v>2.461932261802247</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08291605449669248</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.309867422531568</v>
       </c>
       <c r="L6">
-        <v>0.1227392599113628</v>
+        <v>0.1618621840183891</v>
       </c>
       <c r="M6">
-        <v>0.4761526177224411</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.447504894000105</v>
+        <v>2.58745683827334</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.221649421638858</v>
+        <v>1.569639462376017</v>
       </c>
       <c r="C7">
-        <v>0.6080067085872258</v>
+        <v>0.08752109477785552</v>
       </c>
       <c r="D7">
-        <v>0.06820501362997433</v>
+        <v>0.003310065418924424</v>
       </c>
       <c r="E7">
-        <v>0.03122255768568039</v>
+        <v>0.02688768331006486</v>
       </c>
       <c r="F7">
-        <v>2.191796854351381</v>
+        <v>2.490316909674888</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08305865317465688</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.362223121522703</v>
       </c>
       <c r="L7">
-        <v>0.1266535014839718</v>
+        <v>0.1665387044084667</v>
       </c>
       <c r="M7">
-        <v>0.4982284230487295</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.438651800879811</v>
+        <v>2.581928064898932</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.897032819330377</v>
+        <v>1.815220025124859</v>
       </c>
       <c r="C8">
-        <v>0.7447456283334475</v>
+        <v>0.1071299728890978</v>
       </c>
       <c r="D8">
-        <v>0.06716289103613349</v>
+        <v>0.003872362505022764</v>
       </c>
       <c r="E8">
-        <v>0.03320112110243922</v>
+        <v>0.02802023065854087</v>
       </c>
       <c r="F8">
-        <v>2.502887985097061</v>
+        <v>2.622946903827213</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08385855483253835</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.597849639029818</v>
       </c>
       <c r="L8">
-        <v>0.1444663660746528</v>
+        <v>0.1877114620207294</v>
       </c>
       <c r="M8">
-        <v>0.5978226786220588</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.404161766133953</v>
+        <v>2.562104906967534</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.287678490689416</v>
+        <v>2.319518752312888</v>
       </c>
       <c r="C9">
-        <v>1.023781901534761</v>
+        <v>0.1467639891227037</v>
       </c>
       <c r="D9">
-        <v>0.06630740832747506</v>
+        <v>0.004960359175294471</v>
       </c>
       <c r="E9">
-        <v>0.03722306214960369</v>
+        <v>0.03048385782500418</v>
       </c>
       <c r="F9">
-        <v>3.167301322499839</v>
+        <v>2.913301895375454</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.08609275287926721</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.080183132056874</v>
       </c>
       <c r="L9">
-        <v>0.18180906654311</v>
+        <v>0.2314954572251082</v>
       </c>
       <c r="M9">
-        <v>0.8034070965811537</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.355486584220642</v>
+        <v>2.541205748548151</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.368063447882889</v>
+        <v>2.708009682047702</v>
       </c>
       <c r="C10">
-        <v>1.239190012231859</v>
+        <v>0.1769522392375222</v>
       </c>
       <c r="D10">
-        <v>0.0666096500504878</v>
+        <v>0.005753672881567695</v>
       </c>
       <c r="E10">
-        <v>0.04033474061218811</v>
+        <v>0.0324629930970719</v>
       </c>
       <c r="F10">
-        <v>3.701202916202561</v>
+        <v>3.149045608155149</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.08819500931249991</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.450895749015729</v>
       </c>
       <c r="L10">
-        <v>0.2112348082352327</v>
+        <v>0.2653998097916883</v>
       </c>
       <c r="M10">
-        <v>0.9634395609424047</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.334069455058739</v>
+        <v>2.538423854873798</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.877152585804367</v>
+        <v>2.889676231731926</v>
       </c>
       <c r="C11">
-        <v>1.340447229297013</v>
+        <v>0.1910052908260838</v>
       </c>
       <c r="D11">
-        <v>0.06700541883885336</v>
+        <v>0.006114166791817865</v>
       </c>
       <c r="E11">
-        <v>0.04180368687297076</v>
+        <v>0.033405305645136</v>
       </c>
       <c r="F11">
-        <v>3.957371551690613</v>
+        <v>3.262146802547306</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.08926510597947868</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.624082302264185</v>
       </c>
       <c r="L11">
-        <v>0.225190248814215</v>
+        <v>0.2812890900033409</v>
       </c>
       <c r="M11">
-        <v>1.038915093212346</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.328183962931263</v>
+        <v>2.540292118371198</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.072943985451559</v>
+        <v>2.959274094452269</v>
       </c>
       <c r="C12">
-        <v>1.379360378235845</v>
+        <v>0.1963810431345365</v>
       </c>
       <c r="D12">
-        <v>0.06719812750696974</v>
+        <v>0.006250716765180186</v>
       </c>
       <c r="E12">
-        <v>0.04236959698302201</v>
+        <v>0.03376865479334157</v>
       </c>
       <c r="F12">
-        <v>4.056619149722081</v>
+        <v>3.305909772224538</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.08968795450034861</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.690409358926814</v>
       </c>
       <c r="L12">
-        <v>0.2305701306061536</v>
+        <v>0.2873811199853833</v>
       </c>
       <c r="M12">
-        <v>1.06795160373386</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.326584168697579</v>
+        <v>2.54148815180838</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.030634507898867</v>
+        <v>2.944247554126832</v>
       </c>
       <c r="C13">
-        <v>1.370952659517286</v>
+        <v>0.195220730809865</v>
       </c>
       <c r="D13">
-        <v>0.06715461738826889</v>
+        <v>0.00622130483603911</v>
       </c>
       <c r="E13">
-        <v>0.04224725353823011</v>
+        <v>0.03369010315249987</v>
       </c>
       <c r="F13">
-        <v>4.035138860214829</v>
+        <v>3.296441537015824</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.08959608101571348</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.676089949616141</v>
       </c>
       <c r="L13">
-        <v>0.2294070054877864</v>
+        <v>0.2860656142805027</v>
       </c>
       <c r="M13">
-        <v>1.06167656411877</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.326899430784721</v>
+        <v>2.541208187862139</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.893197128112206</v>
+        <v>2.895385387666124</v>
       </c>
       <c r="C14">
-        <v>1.343636601499554</v>
+        <v>0.1914464219625529</v>
       </c>
       <c r="D14">
-        <v>0.06702037830997654</v>
+        <v>0.00612539944886592</v>
       </c>
       <c r="E14">
-        <v>0.04185003861444692</v>
+        <v>0.03343506510906025</v>
       </c>
       <c r="F14">
-        <v>3.96548969709275</v>
+        <v>3.265727932506309</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.0892995330102373</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.629523580791414</v>
       </c>
       <c r="L14">
-        <v>0.2256308620172121</v>
+        <v>0.2817887304661753</v>
       </c>
       <c r="M14">
-        <v>1.041294369390748</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.328039274620139</v>
+        <v>2.540380493435734</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.809420242113049</v>
+        <v>2.86556365857399</v>
       </c>
       <c r="C15">
-        <v>1.32698208577807</v>
+        <v>0.18914185889831</v>
       </c>
       <c r="D15">
-        <v>0.06694391809676858</v>
+        <v>0.006066662830580327</v>
       </c>
       <c r="E15">
-        <v>0.04160805461489225</v>
+        <v>0.03327971046500622</v>
       </c>
       <c r="F15">
-        <v>3.923130254159446</v>
+        <v>3.247039470012993</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.08912022403301023</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.601100232281567</v>
       </c>
       <c r="L15">
-        <v>0.2233307016435901</v>
+        <v>0.2791790506987013</v>
       </c>
       <c r="M15">
-        <v>1.028871302444514</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.328821771145215</v>
+        <v>2.539938327022455</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.335186900718213</v>
+        <v>2.696244596462407</v>
       </c>
       <c r="C16">
-        <v>1.23264649933617</v>
+        <v>0.1760409574420976</v>
       </c>
       <c r="D16">
-        <v>0.06658944809483813</v>
+        <v>0.005730113576380091</v>
       </c>
       <c r="E16">
-        <v>0.04023997695396275</v>
+        <v>0.03240229551419382</v>
       </c>
       <c r="F16">
-        <v>3.684756299282839</v>
+        <v>3.141779694288545</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.08812747065083926</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.439676686640468</v>
       </c>
       <c r="L16">
-        <v>0.2103353452733216</v>
+        <v>0.2643714586620121</v>
       </c>
       <c r="M16">
-        <v>0.9585667101865951</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.334537787625422</v>
+        <v>2.53836797055898</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.049089234189864</v>
+        <v>2.593702234264867</v>
       </c>
       <c r="C17">
-        <v>1.175677352487128</v>
+        <v>0.1680915074052507</v>
       </c>
       <c r="D17">
-        <v>0.06644190164374209</v>
+        <v>0.005523613186410259</v>
       </c>
       <c r="E17">
-        <v>0.03941568275655172</v>
+        <v>0.03187511059273263</v>
       </c>
       <c r="F17">
-        <v>3.542146049896587</v>
+        <v>3.078769235954525</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.08754844902954062</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.341875246391595</v>
       </c>
       <c r="L17">
-        <v>0.2025178861861576</v>
+        <v>0.2554123441917397</v>
       </c>
       <c r="M17">
-        <v>0.9161695478400418</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.339081583296348</v>
+        <v>2.538232990335999</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.886159068804773</v>
+        <v>2.53518137637974</v>
       </c>
       <c r="C18">
-        <v>1.143210906982858</v>
+        <v>0.163548803959543</v>
       </c>
       <c r="D18">
-        <v>0.06638095392628429</v>
+        <v>0.005404796281050395</v>
       </c>
       <c r="E18">
-        <v>0.0389464627062619</v>
+        <v>0.03157580924183634</v>
       </c>
       <c r="F18">
-        <v>3.461349186111363</v>
+        <v>3.043072882211433</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.08722603663202477</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.286044495743539</v>
       </c>
       <c r="L18">
-        <v>0.1980741898084943</v>
+        <v>0.2503026321970196</v>
       </c>
       <c r="M18">
-        <v>0.8920308773755465</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.342053047624105</v>
+        <v>2.538447822074389</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.831259547298146</v>
+        <v>2.515443299126332</v>
       </c>
       <c r="C19">
-        <v>1.132267193320104</v>
+        <v>0.1620155750597689</v>
       </c>
       <c r="D19">
-        <v>0.06636426765278003</v>
+        <v>0.005364556910622653</v>
       </c>
       <c r="E19">
-        <v>0.03878837872424334</v>
+        <v>0.03147513067403018</v>
       </c>
       <c r="F19">
-        <v>3.434194543674153</v>
+        <v>3.031077785136745</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.08711866175493199</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.267211024141858</v>
       </c>
       <c r="L19">
-        <v>0.1965783060404647</v>
+        <v>0.2485797806766783</v>
       </c>
       <c r="M19">
-        <v>0.8838983858911362</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.343118543102364</v>
+        <v>2.538569700713111</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.079373346257682</v>
+        <v>2.60456990740812</v>
       </c>
       <c r="C20">
-        <v>1.181710023608218</v>
+        <v>0.1689346194295211</v>
       </c>
       <c r="D20">
-        <v>0.06645509467463739</v>
+        <v>0.005545599369025211</v>
       </c>
       <c r="E20">
-        <v>0.03950291081684831</v>
+        <v>0.03193082116159296</v>
       </c>
       <c r="F20">
-        <v>3.557197748031257</v>
+        <v>3.085419708076387</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.08760897840225113</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.352242065525672</v>
       </c>
       <c r="L20">
-        <v>0.2033445233248443</v>
+        <v>0.2563615163240058</v>
       </c>
       <c r="M20">
-        <v>0.9206567502949454</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.338560336547559</v>
+        <v>2.538216827727084</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.933479940288919</v>
+        <v>2.909714751286572</v>
       </c>
       <c r="C21">
-        <v>1.351643667536507</v>
+        <v>0.1925534887885334</v>
       </c>
       <c r="D21">
-        <v>0.06705859452419105</v>
+        <v>0.006153567278765593</v>
       </c>
       <c r="E21">
-        <v>0.04196643080172713</v>
+        <v>0.03350979508831387</v>
       </c>
       <c r="F21">
-        <v>3.98588360118589</v>
+        <v>3.274723138878784</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.08938614724041116</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.643180257371085</v>
       </c>
       <c r="L21">
-        <v>0.2267373050014356</v>
+        <v>0.2830428479925899</v>
       </c>
       <c r="M21">
-        <v>1.047268131129698</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.327686755155753</v>
+        <v>2.540610025336974</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.509513487578602</v>
+        <v>3.113885900104265</v>
       </c>
       <c r="C22">
-        <v>1.466081621425133</v>
+        <v>0.2083099421403602</v>
       </c>
       <c r="D22">
-        <v>0.06770612875949666</v>
+        <v>0.006551194504034186</v>
       </c>
       <c r="E22">
-        <v>0.0436339369312293</v>
+        <v>0.03457998171821863</v>
       </c>
       <c r="F22">
-        <v>4.279316416463075</v>
+        <v>3.40393743956713</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.09065105296838993</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.837717408066737</v>
       </c>
       <c r="L22">
-        <v>0.2425888254286832</v>
+        <v>0.3009227786692463</v>
       </c>
       <c r="M22">
-        <v>1.132712628794202</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.324289592337848</v>
+        <v>2.545042473330454</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.200264451257112</v>
+        <v>3.004448305782603</v>
       </c>
       <c r="C23">
-        <v>1.404657709460707</v>
+        <v>0.1998682119681803</v>
       </c>
       <c r="D23">
-        <v>0.06733521215836191</v>
+        <v>0.006338910558550737</v>
       </c>
       <c r="E23">
-        <v>0.04273795028060512</v>
+        <v>0.03400513408065997</v>
       </c>
       <c r="F23">
-        <v>4.121368964034559</v>
+        <v>3.334437948379076</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.08996603254909274</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.733454715055956</v>
       </c>
       <c r="L23">
-        <v>0.2340720928951043</v>
+        <v>0.291336572279306</v>
       </c>
       <c r="M23">
-        <v>1.086836164503424</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.325735539606711</v>
+        <v>2.542400714507266</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.065677102614529</v>
+        <v>2.599655293454418</v>
       </c>
       <c r="C24">
-        <v>1.178981769843801</v>
+        <v>0.1685533633003899</v>
       </c>
       <c r="D24">
-        <v>0.06644905614657404</v>
+        <v>0.005535659724911213</v>
       </c>
       <c r="E24">
-        <v>0.03946346058431516</v>
+        <v>0.03190562266168762</v>
       </c>
       <c r="F24">
-        <v>3.550389187801215</v>
+        <v>3.082411388081013</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.08758158054003218</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.347553998044759</v>
       </c>
       <c r="L24">
-        <v>0.2029706438463705</v>
+        <v>0.2559322684914065</v>
       </c>
       <c r="M24">
-        <v>0.9186273561049347</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.338794878915451</v>
+        <v>2.538223226795026</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.902636348944952</v>
+        <v>2.180256393600018</v>
       </c>
       <c r="C25">
-        <v>0.9467715602354758</v>
+        <v>0.1358814717591343</v>
       </c>
       <c r="D25">
-        <v>0.06639216504601819</v>
+        <v>0.004667342577063138</v>
       </c>
       <c r="E25">
-        <v>0.03611322635879866</v>
+        <v>0.02978932658323075</v>
       </c>
       <c r="F25">
-        <v>2.980537126191336</v>
+        <v>2.831125058161263</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.0854117070941669</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.947139573768311</v>
       </c>
       <c r="L25">
-        <v>0.1713989626067587</v>
+        <v>0.2193734998222823</v>
       </c>
       <c r="M25">
-        <v>0.7464306642758416</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.366359758734902</v>
+        <v>2.544777817873623</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.883156662534901</v>
+        <v>2.279501564648513</v>
       </c>
       <c r="C2">
-        <v>0.1125111076106862</v>
+        <v>0.03613163392991225</v>
       </c>
       <c r="D2">
-        <v>0.004023642083991419</v>
+        <v>0.007396171535580365</v>
       </c>
       <c r="E2">
-        <v>0.02834279774381621</v>
+        <v>0.07614127728839293</v>
       </c>
       <c r="F2">
-        <v>2.660796483878357</v>
+        <v>4.461247904343708</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08411845999868817</v>
+        <v>0.1909334364560777</v>
       </c>
       <c r="K2">
-        <v>1.662928936276586</v>
+        <v>1.709876221727171</v>
       </c>
       <c r="L2">
-        <v>0.1935893325532803</v>
+        <v>0.3211692963925259</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.557895505571423</v>
+        <v>4.371269726001131</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.687742364386366</v>
+        <v>2.243400116295362</v>
       </c>
       <c r="C3">
-        <v>0.09698527791631761</v>
+        <v>0.03193831572107797</v>
       </c>
       <c r="D3">
-        <v>0.003583716766382139</v>
+        <v>0.007351124521111529</v>
       </c>
       <c r="E3">
-        <v>0.02742514987814104</v>
+        <v>0.07627828469593823</v>
       </c>
       <c r="F3">
-        <v>2.553218824091161</v>
+        <v>4.449932950733213</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08341376274221801</v>
+        <v>0.1913817980921309</v>
       </c>
       <c r="K3">
-        <v>1.475619940464014</v>
+        <v>1.67224061195239</v>
       </c>
       <c r="L3">
-        <v>0.1767048262456967</v>
+        <v>0.3189368142785654</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.57142611765326</v>
+        <v>4.379460405894577</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.570279477217213</v>
+        <v>2.222451037214142</v>
       </c>
       <c r="C4">
-        <v>0.08757257733148549</v>
+        <v>0.02937647600077753</v>
       </c>
       <c r="D4">
-        <v>0.003311566114160058</v>
+        <v>0.007328578973993416</v>
       </c>
       <c r="E4">
-        <v>0.02689055517527095</v>
+        <v>0.07638527183220489</v>
       </c>
       <c r="F4">
-        <v>2.490652915791856</v>
+        <v>4.444562865237529</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08306041284701848</v>
+        <v>0.1917044313802414</v>
       </c>
       <c r="K4">
-        <v>1.362838095217739</v>
+        <v>1.650109606069407</v>
       </c>
       <c r="L4">
-        <v>0.1665937041058854</v>
+        <v>0.317717151666379</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.581865807871523</v>
+        <v>4.385348231184551</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.522991739456728</v>
+        <v>2.214220414130835</v>
       </c>
       <c r="C5">
-        <v>0.0837624572350677</v>
+        <v>0.02833568208167492</v>
       </c>
       <c r="D5">
-        <v>0.003200129121244899</v>
+        <v>0.007320688106446482</v>
       </c>
       <c r="E5">
-        <v>0.02667967591592557</v>
+        <v>0.07643463369510783</v>
       </c>
       <c r="F5">
-        <v>2.465980766937051</v>
+        <v>4.44277118142368</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08293563401276316</v>
+        <v>0.1918478270541399</v>
       </c>
       <c r="K5">
-        <v>1.317385623562927</v>
+        <v>1.641336830198469</v>
       </c>
       <c r="L5">
-        <v>0.1625329916413847</v>
+        <v>0.3172581729292219</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.586634527021218</v>
+        <v>4.387963406231123</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.515173102757956</v>
+        <v>2.212872230638027</v>
       </c>
       <c r="C6">
-        <v>0.08313120954066733</v>
+        <v>0.02816304913454815</v>
       </c>
       <c r="D6">
-        <v>0.00318159238505622</v>
+        <v>0.007319456466637675</v>
       </c>
       <c r="E6">
-        <v>0.02664507284033313</v>
+        <v>0.07644317873540274</v>
       </c>
       <c r="F6">
-        <v>2.461932261802247</v>
+        <v>4.442497632788815</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08291605449669248</v>
+        <v>0.1918723582263731</v>
       </c>
       <c r="K6">
-        <v>1.309867422531568</v>
+        <v>1.639894963051887</v>
       </c>
       <c r="L6">
-        <v>0.1618621840183891</v>
+        <v>0.3171842591205447</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.58745683827334</v>
+        <v>4.388410687540699</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.569639462376017</v>
+        <v>2.222338795725562</v>
       </c>
       <c r="C7">
-        <v>0.08752109477785552</v>
+        <v>0.02936242670818956</v>
       </c>
       <c r="D7">
-        <v>0.003310065418924424</v>
+        <v>0.00732846728985237</v>
       </c>
       <c r="E7">
-        <v>0.02688768331006486</v>
+        <v>0.07638591418710483</v>
       </c>
       <c r="F7">
-        <v>2.490316909674888</v>
+        <v>4.444537095832715</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08305865317465688</v>
+        <v>0.191706316978653</v>
       </c>
       <c r="K7">
-        <v>1.362223121522703</v>
+        <v>1.649990298139699</v>
       </c>
       <c r="L7">
-        <v>0.1665387044084667</v>
+        <v>0.317710807612805</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.581928064898932</v>
+        <v>4.385382626573488</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.815220025124859</v>
+        <v>2.266801212470284</v>
       </c>
       <c r="C8">
-        <v>0.1071299728890978</v>
+        <v>0.03468306769246965</v>
       </c>
       <c r="D8">
-        <v>0.003872362505022764</v>
+        <v>0.007379584404274553</v>
       </c>
       <c r="E8">
-        <v>0.02802023065854087</v>
+        <v>0.07618378052857011</v>
       </c>
       <c r="F8">
-        <v>2.622946903827213</v>
+        <v>4.457019137313182</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08385855483253835</v>
+        <v>0.1910782164496112</v>
       </c>
       <c r="K8">
-        <v>1.597849639029818</v>
+        <v>1.696696589434879</v>
       </c>
       <c r="L8">
-        <v>0.1877114620207294</v>
+        <v>0.3203682064270339</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.562104906967534</v>
+        <v>4.373915587436272</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.319518752312888</v>
+        <v>2.363650991199847</v>
       </c>
       <c r="C9">
-        <v>0.1467639891227037</v>
+        <v>0.04522226193371637</v>
       </c>
       <c r="D9">
-        <v>0.004960359175294471</v>
+        <v>0.007519946974237968</v>
       </c>
       <c r="E9">
-        <v>0.03048385782500418</v>
+        <v>0.07596822161904448</v>
       </c>
       <c r="F9">
-        <v>2.913301895375454</v>
+        <v>4.494016150565812</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08609275287926721</v>
+        <v>0.1902214516060035</v>
       </c>
       <c r="K9">
-        <v>2.080183132056874</v>
+        <v>1.796049890465355</v>
       </c>
       <c r="L9">
-        <v>0.2314954572251082</v>
+        <v>0.3267766505350096</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.541205748548151</v>
+        <v>4.35824770225183</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.708009682047702</v>
+        <v>2.440706717701914</v>
       </c>
       <c r="C10">
-        <v>0.1769522392375222</v>
+        <v>0.05303499218543095</v>
       </c>
       <c r="D10">
-        <v>0.005753672881567695</v>
+        <v>0.007646957898877815</v>
       </c>
       <c r="E10">
-        <v>0.0324629930970719</v>
+        <v>0.07591935155321927</v>
       </c>
       <c r="F10">
-        <v>3.149045608155149</v>
+        <v>4.528844567540204</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08819500931249991</v>
+        <v>0.1898197669930433</v>
       </c>
       <c r="K10">
-        <v>2.450895749015729</v>
+        <v>1.873797700397773</v>
       </c>
       <c r="L10">
-        <v>0.2653998097916883</v>
+        <v>0.33221378521948</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.538423854873798</v>
+        <v>4.350902866765978</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.889676231731926</v>
+        <v>2.477045965152172</v>
       </c>
       <c r="C11">
-        <v>0.1910052908260838</v>
+        <v>0.05660550998942426</v>
       </c>
       <c r="D11">
-        <v>0.006114166791817865</v>
+        <v>0.007709808262983842</v>
       </c>
       <c r="E11">
-        <v>0.033405305645136</v>
+        <v>0.07592074678237459</v>
       </c>
       <c r="F11">
-        <v>3.262146802547306</v>
+        <v>4.546353116990844</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08926510597947868</v>
+        <v>0.1896863337972441</v>
       </c>
       <c r="K11">
-        <v>2.624082302264185</v>
+        <v>1.910204539044912</v>
       </c>
       <c r="L11">
-        <v>0.2812890900033409</v>
+        <v>0.3348454035262165</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.540292118371198</v>
+        <v>4.348468425253259</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.959274094452269</v>
+        <v>2.490991708427828</v>
       </c>
       <c r="C12">
-        <v>0.1963810431345365</v>
+        <v>0.0579600206540789</v>
       </c>
       <c r="D12">
-        <v>0.006250716765180186</v>
+        <v>0.007734327529195895</v>
       </c>
       <c r="E12">
-        <v>0.03376865479334157</v>
+        <v>0.07592465947687366</v>
       </c>
       <c r="F12">
-        <v>3.305909772224538</v>
+        <v>4.553222735057631</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08968795450034861</v>
+        <v>0.189642880847213</v>
       </c>
       <c r="K12">
-        <v>2.690409358926814</v>
+        <v>1.924140485757164</v>
       </c>
       <c r="L12">
-        <v>0.2873811199853833</v>
+        <v>0.3358646537956247</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.54148815180838</v>
+        <v>4.347677124835982</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.944247554126832</v>
+        <v>2.487980022870431</v>
       </c>
       <c r="C13">
-        <v>0.195220730809865</v>
+        <v>0.05766819329380724</v>
       </c>
       <c r="D13">
-        <v>0.00622130483603911</v>
+        <v>0.007729015040597531</v>
       </c>
       <c r="E13">
-        <v>0.03369010315249987</v>
+        <v>0.07592366649540772</v>
       </c>
       <c r="F13">
-        <v>3.296441537015824</v>
+        <v>4.551732585971166</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08959608101571348</v>
+        <v>0.1896519247503257</v>
       </c>
       <c r="K13">
-        <v>2.676089949616141</v>
+        <v>1.92113248157554</v>
       </c>
       <c r="L13">
-        <v>0.2860656142805027</v>
+        <v>0.3356441304642317</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.541208187862139</v>
+        <v>4.347841735509817</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.895385387666124</v>
+        <v>2.478189585513917</v>
       </c>
       <c r="C14">
-        <v>0.1914464219625529</v>
+        <v>0.05671689726071349</v>
       </c>
       <c r="D14">
-        <v>0.00612539944886592</v>
+        <v>0.007711811121231094</v>
       </c>
       <c r="E14">
-        <v>0.03343506510906025</v>
+        <v>0.07592100092923815</v>
       </c>
       <c r="F14">
-        <v>3.265727932506309</v>
+        <v>4.546913483877034</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0892995330102373</v>
+        <v>0.1896826171723269</v>
       </c>
       <c r="K14">
-        <v>2.629523580791414</v>
+        <v>1.911348061824498</v>
       </c>
       <c r="L14">
-        <v>0.2817887304661753</v>
+        <v>0.3349288028770872</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.540380493435734</v>
+        <v>4.34840070663985</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.86556365857399</v>
+        <v>2.472216731333958</v>
       </c>
       <c r="C15">
-        <v>0.18914185889831</v>
+        <v>0.05613451976883255</v>
       </c>
       <c r="D15">
-        <v>0.006066662830580327</v>
+        <v>0.007701366584825564</v>
       </c>
       <c r="E15">
-        <v>0.03327971046500622</v>
+        <v>0.07591980854883218</v>
       </c>
       <c r="F15">
-        <v>3.247039470012993</v>
+        <v>4.543992839021428</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08912022403301023</v>
+        <v>0.1897023381909904</v>
       </c>
       <c r="K15">
-        <v>2.601100232281567</v>
+        <v>1.905374289296674</v>
       </c>
       <c r="L15">
-        <v>0.2791790506987013</v>
+        <v>0.3344936008503367</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.539938327022455</v>
+        <v>4.348760102015348</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.696244596462407</v>
+        <v>2.438357735780073</v>
       </c>
       <c r="C16">
-        <v>0.1760409574420976</v>
+        <v>0.05280198736571151</v>
       </c>
       <c r="D16">
-        <v>0.005730113576380091</v>
+        <v>0.007642951673553</v>
       </c>
       <c r="E16">
-        <v>0.03240229551419382</v>
+        <v>0.07591973467331137</v>
       </c>
       <c r="F16">
-        <v>3.141779694288545</v>
+        <v>4.527733853228057</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08812747065083926</v>
+        <v>0.1898294779711165</v>
       </c>
       <c r="K16">
-        <v>2.439676686640468</v>
+        <v>1.871439339904725</v>
       </c>
       <c r="L16">
-        <v>0.2643714586620121</v>
+        <v>0.3320449834097872</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.53836797055898</v>
+        <v>4.351080224747491</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.593702234264867</v>
+        <v>2.417915696213527</v>
       </c>
       <c r="C17">
-        <v>0.1680915074052507</v>
+        <v>0.05076185052466542</v>
       </c>
       <c r="D17">
-        <v>0.005523613186410259</v>
+        <v>0.007608407873476608</v>
       </c>
       <c r="E17">
-        <v>0.03187511059273263</v>
+        <v>0.07592573129110569</v>
       </c>
       <c r="F17">
-        <v>3.078769235954525</v>
+        <v>4.518185985095784</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08754844902954062</v>
+        <v>0.189920090254482</v>
       </c>
       <c r="K17">
-        <v>2.341875246391595</v>
+        <v>1.850887495707866</v>
       </c>
       <c r="L17">
-        <v>0.2554123441917397</v>
+        <v>0.3305833350945875</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.538232990335999</v>
+        <v>4.352735913623121</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.53518137637974</v>
+        <v>2.406279045166855</v>
       </c>
       <c r="C18">
-        <v>0.163548803959543</v>
+        <v>0.04958996385917658</v>
       </c>
       <c r="D18">
-        <v>0.005404796281050395</v>
+        <v>0.0075890172364943</v>
       </c>
       <c r="E18">
-        <v>0.03157580924183634</v>
+        <v>0.0759314049976787</v>
       </c>
       <c r="F18">
-        <v>3.043072882211433</v>
+        <v>4.512851008487843</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08722603663202477</v>
+        <v>0.1899768487153715</v>
       </c>
       <c r="K18">
-        <v>2.286044495743539</v>
+        <v>1.839164406877472</v>
       </c>
       <c r="L18">
-        <v>0.2503026321970196</v>
+        <v>0.3297575301814248</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.538447822074389</v>
+        <v>4.353773559749001</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.515443299126332</v>
+        <v>2.402359871959732</v>
       </c>
       <c r="C19">
-        <v>0.1620155750597689</v>
+        <v>0.04919344674078729</v>
       </c>
       <c r="D19">
-        <v>0.005364556910622653</v>
+        <v>0.00758253431953726</v>
       </c>
       <c r="E19">
-        <v>0.03147513067403018</v>
+        <v>0.07593370849753356</v>
       </c>
       <c r="F19">
-        <v>3.031077785136745</v>
+        <v>4.51107158846321</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08711866175493199</v>
+        <v>0.1899968636038736</v>
       </c>
       <c r="K19">
-        <v>2.267211024141858</v>
+        <v>1.835211963855272</v>
       </c>
       <c r="L19">
-        <v>0.2485797806766783</v>
+        <v>0.3294804865868031</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.538569700713111</v>
+        <v>4.354139540347887</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.60456990740812</v>
+        <v>2.420079256747556</v>
       </c>
       <c r="C20">
-        <v>0.1689346194295211</v>
+        <v>0.05097886608980673</v>
       </c>
       <c r="D20">
-        <v>0.005545599369025211</v>
+        <v>0.007612035718491228</v>
       </c>
       <c r="E20">
-        <v>0.03193082116159296</v>
+        <v>0.07592486279741451</v>
       </c>
       <c r="F20">
-        <v>3.085419708076387</v>
+        <v>4.519186153012953</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08760897840225113</v>
+        <v>0.1899099642274109</v>
       </c>
       <c r="K20">
-        <v>2.352242065525672</v>
+        <v>1.853065153457067</v>
       </c>
       <c r="L20">
-        <v>0.2563615163240058</v>
+        <v>0.3307373886184877</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.538216827727084</v>
+        <v>4.352550829361448</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.909714751286572</v>
+        <v>2.481060257990805</v>
       </c>
       <c r="C21">
-        <v>0.1925534887885334</v>
+        <v>0.05699624941152592</v>
       </c>
       <c r="D21">
-        <v>0.006153567278765593</v>
+        <v>0.007716844891795915</v>
       </c>
       <c r="E21">
-        <v>0.03350979508831387</v>
+        <v>0.07592169212409594</v>
       </c>
       <c r="F21">
-        <v>3.274723138878784</v>
+        <v>4.548322469923477</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08938614724041116</v>
+        <v>0.1896734101464759</v>
       </c>
       <c r="K21">
-        <v>2.643180257371085</v>
+        <v>1.914217926031483</v>
       </c>
       <c r="L21">
-        <v>0.2830428479925899</v>
+        <v>0.3351382958115749</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.540610025336974</v>
+        <v>4.348232978194076</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.113885900104265</v>
+        <v>2.521992329235388</v>
       </c>
       <c r="C22">
-        <v>0.2083099421403602</v>
+        <v>0.06094316962297341</v>
       </c>
       <c r="D22">
-        <v>0.006551194504034186</v>
+        <v>0.007789531154752893</v>
       </c>
       <c r="E22">
-        <v>0.03457998171821863</v>
+        <v>0.07593934050793116</v>
       </c>
       <c r="F22">
-        <v>3.40393743956713</v>
+        <v>4.568760838496047</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09065105296838993</v>
+        <v>0.1895600426868107</v>
       </c>
       <c r="K22">
-        <v>2.837717408066737</v>
+        <v>1.955056042792592</v>
       </c>
       <c r="L22">
-        <v>0.3009227786692463</v>
+        <v>0.3381469166724287</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.545042473330454</v>
+        <v>4.346172159740973</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.004448305782603</v>
+        <v>2.500047553940249</v>
       </c>
       <c r="C23">
-        <v>0.1998682119681803</v>
+        <v>0.05883530194836339</v>
       </c>
       <c r="D23">
-        <v>0.006338910558550737</v>
+        <v>0.007750357311302025</v>
       </c>
       <c r="E23">
-        <v>0.03400513408065997</v>
+        <v>0.07592812109259306</v>
       </c>
       <c r="F23">
-        <v>3.334437948379076</v>
+        <v>4.557724719046007</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08996603254909274</v>
+        <v>0.1896167804161308</v>
       </c>
       <c r="K23">
-        <v>2.733454715055956</v>
+        <v>1.933180228689281</v>
       </c>
       <c r="L23">
-        <v>0.291336572279306</v>
+        <v>0.336529060155442</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.542400714507266</v>
+        <v>4.347202352062666</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.599655293454418</v>
+        <v>2.41910075047781</v>
       </c>
       <c r="C24">
-        <v>0.1685533633003899</v>
+        <v>0.05088075019556015</v>
       </c>
       <c r="D24">
-        <v>0.005535659724911213</v>
+        <v>0.007610394108612084</v>
       </c>
       <c r="E24">
-        <v>0.03190562266168762</v>
+        <v>0.07592524850835858</v>
       </c>
       <c r="F24">
-        <v>3.082411388081013</v>
+        <v>4.518733496718625</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08758158054003218</v>
+        <v>0.189914527674528</v>
       </c>
       <c r="K24">
-        <v>2.347553998044759</v>
+        <v>1.852080346456262</v>
       </c>
       <c r="L24">
-        <v>0.2559322684914065</v>
+        <v>0.3306676958023758</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.538223226795026</v>
+        <v>4.352634238794508</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.180256393600018</v>
+        <v>2.33641530885842</v>
       </c>
       <c r="C25">
-        <v>0.1358814717591343</v>
+        <v>0.04235929651500214</v>
       </c>
       <c r="D25">
-        <v>0.004667342577063138</v>
+        <v>0.007477739695913144</v>
       </c>
       <c r="E25">
-        <v>0.02978932658323075</v>
+        <v>0.07600725391176688</v>
       </c>
       <c r="F25">
-        <v>2.831125058161263</v>
+        <v>4.482665705421596</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0854117070941669</v>
+        <v>0.1904131722146971</v>
       </c>
       <c r="K25">
-        <v>1.947139573768311</v>
+        <v>1.76833905723737</v>
       </c>
       <c r="L25">
-        <v>0.2193734998222823</v>
+        <v>0.3249149307801673</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.544777817873623</v>
+        <v>4.361755317418869</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.279501564648513</v>
+        <v>1.883156662534844</v>
       </c>
       <c r="C2">
-        <v>0.03613163392991225</v>
+        <v>0.1125111076103877</v>
       </c>
       <c r="D2">
-        <v>0.007396171535580365</v>
+        <v>0.004023642083891943</v>
       </c>
       <c r="E2">
-        <v>0.07614127728839293</v>
+        <v>0.02834279774383219</v>
       </c>
       <c r="F2">
-        <v>4.461247904343708</v>
+        <v>2.660796483878372</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1909334364560777</v>
+        <v>0.08411845999874146</v>
       </c>
       <c r="K2">
-        <v>1.709876221727171</v>
+        <v>1.662928936276614</v>
       </c>
       <c r="L2">
-        <v>0.3211692963925259</v>
+        <v>0.1935893325531808</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.371269726001131</v>
+        <v>2.557895505571494</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.243400116295362</v>
+        <v>1.687742364386452</v>
       </c>
       <c r="C3">
-        <v>0.03193831572107797</v>
+        <v>0.09698527791633182</v>
       </c>
       <c r="D3">
-        <v>0.007351124521111529</v>
+        <v>0.003583716766389244</v>
       </c>
       <c r="E3">
-        <v>0.07627828469593823</v>
+        <v>0.02742514987815525</v>
       </c>
       <c r="F3">
-        <v>4.449932950733213</v>
+        <v>2.553218824091175</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1913817980921309</v>
+        <v>0.08341376274222867</v>
       </c>
       <c r="K3">
-        <v>1.67224061195239</v>
+        <v>1.475619940463986</v>
       </c>
       <c r="L3">
-        <v>0.3189368142785654</v>
+        <v>0.1767048262457038</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.379460405894577</v>
+        <v>2.571426117653274</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.222451037214142</v>
+        <v>1.570279477217213</v>
       </c>
       <c r="C4">
-        <v>0.02937647600077753</v>
+        <v>0.08757257733131496</v>
       </c>
       <c r="D4">
-        <v>0.007328578973993416</v>
+        <v>0.003311566114064135</v>
       </c>
       <c r="E4">
-        <v>0.07638527183220489</v>
+        <v>0.0268905551752443</v>
       </c>
       <c r="F4">
-        <v>4.444562865237529</v>
+        <v>2.490652915791784</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1917044313802414</v>
+        <v>0.08306041284695453</v>
       </c>
       <c r="K4">
-        <v>1.650109606069407</v>
+        <v>1.362838095217739</v>
       </c>
       <c r="L4">
-        <v>0.317717151666379</v>
+        <v>0.1665937041058783</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.385348231184551</v>
+        <v>2.581865807871509</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.214220414130835</v>
+        <v>1.522991739456586</v>
       </c>
       <c r="C5">
-        <v>0.02833568208167492</v>
+        <v>0.08376245723502507</v>
       </c>
       <c r="D5">
-        <v>0.007320688106446482</v>
+        <v>0.003200129121111672</v>
       </c>
       <c r="E5">
-        <v>0.07643463369510783</v>
+        <v>0.02667967591592024</v>
       </c>
       <c r="F5">
-        <v>4.44277118142368</v>
+        <v>2.465980766936994</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1918478270541399</v>
+        <v>0.08293563401267434</v>
       </c>
       <c r="K5">
-        <v>1.641336830198469</v>
+        <v>1.317385623562842</v>
       </c>
       <c r="L5">
-        <v>0.3172581729292219</v>
+        <v>0.1625329916414131</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.387963406231123</v>
+        <v>2.586634527021175</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.212872230638027</v>
+        <v>1.515173102757984</v>
       </c>
       <c r="C6">
-        <v>0.02816304913454815</v>
+        <v>0.08313120954095155</v>
       </c>
       <c r="D6">
-        <v>0.007319456466637675</v>
+        <v>0.003181592385073984</v>
       </c>
       <c r="E6">
-        <v>0.07644317873540274</v>
+        <v>0.02664507284033668</v>
       </c>
       <c r="F6">
-        <v>4.442497632788815</v>
+        <v>2.461932261802247</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1918723582263731</v>
+        <v>0.08291605449667117</v>
       </c>
       <c r="K6">
-        <v>1.639894963051887</v>
+        <v>1.309867422531454</v>
       </c>
       <c r="L6">
-        <v>0.3171842591205447</v>
+        <v>0.1618621840183323</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4.388410687540699</v>
+        <v>2.587456838273397</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.222338795725562</v>
+        <v>1.569639462376045</v>
       </c>
       <c r="C7">
-        <v>0.02936242670818956</v>
+        <v>0.08752109477813974</v>
       </c>
       <c r="D7">
-        <v>0.00732846728985237</v>
+        <v>0.003310065418808961</v>
       </c>
       <c r="E7">
-        <v>0.07638591418710483</v>
+        <v>0.02688768331006841</v>
       </c>
       <c r="F7">
-        <v>4.444537095832715</v>
+        <v>2.490316909674945</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.191706316978653</v>
+        <v>0.08305865317467465</v>
       </c>
       <c r="K7">
-        <v>1.649990298139699</v>
+        <v>1.362223121522504</v>
       </c>
       <c r="L7">
-        <v>0.317710807612805</v>
+        <v>0.1665387044083673</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4.385382626573488</v>
+        <v>2.58192806489896</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.266801212470284</v>
+        <v>1.815220025125001</v>
       </c>
       <c r="C8">
-        <v>0.03468306769246965</v>
+        <v>0.1071299728893536</v>
       </c>
       <c r="D8">
-        <v>0.007379584404274553</v>
+        <v>0.003872362504905524</v>
       </c>
       <c r="E8">
-        <v>0.07618378052857011</v>
+        <v>0.02802023065852666</v>
       </c>
       <c r="F8">
-        <v>4.457019137313182</v>
+        <v>2.622946903827184</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1910782164496112</v>
+        <v>0.08385855483249571</v>
       </c>
       <c r="K8">
-        <v>1.696696589434879</v>
+        <v>1.597849639029647</v>
       </c>
       <c r="L8">
-        <v>0.3203682064270339</v>
+        <v>0.1877114620206228</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.373915587436272</v>
+        <v>2.562104906967463</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.363650991199847</v>
+        <v>2.319518752312717</v>
       </c>
       <c r="C9">
-        <v>0.04522226193371637</v>
+        <v>0.1467639891222063</v>
       </c>
       <c r="D9">
-        <v>0.007519946974237968</v>
+        <v>0.004960359175512963</v>
       </c>
       <c r="E9">
-        <v>0.07596822161904448</v>
+        <v>0.03048385782503971</v>
       </c>
       <c r="F9">
-        <v>4.494016150565812</v>
+        <v>2.913301895375469</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1902214516060035</v>
+        <v>0.08609275287911089</v>
       </c>
       <c r="K9">
-        <v>1.796049890465355</v>
+        <v>2.080183132056874</v>
       </c>
       <c r="L9">
-        <v>0.3267766505350096</v>
+        <v>0.2314954572251366</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.35824770225183</v>
+        <v>2.541205748548066</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.440706717701914</v>
+        <v>2.708009682047816</v>
       </c>
       <c r="C10">
-        <v>0.05303499218543095</v>
+        <v>0.1769522392375222</v>
       </c>
       <c r="D10">
-        <v>0.007646957898877815</v>
+        <v>0.005753672881340322</v>
       </c>
       <c r="E10">
-        <v>0.07591935155321927</v>
+        <v>0.03246299309704703</v>
       </c>
       <c r="F10">
-        <v>4.528844567540204</v>
+        <v>3.14904560815512</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1898197669930433</v>
+        <v>0.08819500931258872</v>
       </c>
       <c r="K10">
-        <v>1.873797700397773</v>
+        <v>2.450895749015757</v>
       </c>
       <c r="L10">
-        <v>0.33221378521948</v>
+        <v>0.2653998097916457</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.350902866765978</v>
+        <v>2.53842385487377</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.477045965152172</v>
+        <v>2.889676231731755</v>
       </c>
       <c r="C11">
-        <v>0.05660550998942426</v>
+        <v>0.1910052908261122</v>
       </c>
       <c r="D11">
-        <v>0.007709808262983842</v>
+        <v>0.00611416679171839</v>
       </c>
       <c r="E11">
-        <v>0.07592074678237459</v>
+        <v>0.03340530564508448</v>
       </c>
       <c r="F11">
-        <v>4.546353116990844</v>
+        <v>3.262146802547335</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1896863337972441</v>
+        <v>0.0892651059795142</v>
       </c>
       <c r="K11">
-        <v>1.910204539044912</v>
+        <v>2.624082302264128</v>
       </c>
       <c r="L11">
-        <v>0.3348454035262165</v>
+        <v>0.2812890900033125</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.348468425253259</v>
+        <v>2.540292118371212</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.490991708427828</v>
+        <v>2.959274094452439</v>
       </c>
       <c r="C12">
-        <v>0.0579600206540789</v>
+        <v>0.1963810431350197</v>
       </c>
       <c r="D12">
-        <v>0.007734327529195895</v>
+        <v>0.006250716764938602</v>
       </c>
       <c r="E12">
-        <v>0.07592465947687366</v>
+        <v>0.03376865479334334</v>
       </c>
       <c r="F12">
-        <v>4.553222735057631</v>
+        <v>3.305909772224453</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.189642880847213</v>
+        <v>0.08968795450022782</v>
       </c>
       <c r="K12">
-        <v>1.924140485757164</v>
+        <v>2.690409358926729</v>
       </c>
       <c r="L12">
-        <v>0.3358646537956247</v>
+        <v>0.2873811199853691</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.347677124835982</v>
+        <v>2.541488151808323</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.487980022870431</v>
+        <v>2.944247554126832</v>
       </c>
       <c r="C13">
-        <v>0.05766819329380724</v>
+        <v>0.1952207308101208</v>
       </c>
       <c r="D13">
-        <v>0.007729015040597531</v>
+        <v>0.006221304836035557</v>
       </c>
       <c r="E13">
-        <v>0.07592366649540772</v>
+        <v>0.03369010315249632</v>
       </c>
       <c r="F13">
-        <v>4.551732585971166</v>
+        <v>3.296441537015824</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1896519247503257</v>
+        <v>0.08959608101570993</v>
       </c>
       <c r="K13">
-        <v>1.92113248157554</v>
+        <v>2.676089949616227</v>
       </c>
       <c r="L13">
-        <v>0.3356441304642317</v>
+        <v>0.2860656142806164</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.347841735509817</v>
+        <v>2.541208187862139</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.478189585513917</v>
+        <v>2.895385387665897</v>
       </c>
       <c r="C14">
-        <v>0.05671689726071349</v>
+        <v>0.1914464219625103</v>
       </c>
       <c r="D14">
-        <v>0.007711811121231094</v>
+        <v>0.006125399448848157</v>
       </c>
       <c r="E14">
-        <v>0.07592100092923815</v>
+        <v>0.03343506510908334</v>
       </c>
       <c r="F14">
-        <v>4.546913483877034</v>
+        <v>3.26572793250628</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1896826171723269</v>
+        <v>0.08929953301020888</v>
       </c>
       <c r="K14">
-        <v>1.911348061824498</v>
+        <v>2.629523580791357</v>
       </c>
       <c r="L14">
-        <v>0.3349288028770872</v>
+        <v>0.2817887304662463</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.34840070663985</v>
+        <v>2.540380493435777</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.472216731333958</v>
+        <v>2.86556365857416</v>
       </c>
       <c r="C15">
-        <v>0.05613451976883255</v>
+        <v>0.18914185889831</v>
       </c>
       <c r="D15">
-        <v>0.007701366584825564</v>
+        <v>0.006066662830679803</v>
       </c>
       <c r="E15">
-        <v>0.07591980854883218</v>
+        <v>0.03327971046503109</v>
       </c>
       <c r="F15">
-        <v>4.543992839021428</v>
+        <v>3.247039470012965</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1897023381909904</v>
+        <v>0.08912022403310615</v>
       </c>
       <c r="K15">
-        <v>1.905374289296674</v>
+        <v>2.601100232281567</v>
       </c>
       <c r="L15">
-        <v>0.3344936008503367</v>
+        <v>0.2791790506984881</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.348760102015348</v>
+        <v>2.539938327022469</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.438357735780073</v>
+        <v>2.696244596462407</v>
       </c>
       <c r="C16">
-        <v>0.05280198736571151</v>
+        <v>0.1760409574423107</v>
       </c>
       <c r="D16">
-        <v>0.007642951673553</v>
+        <v>0.005730113576372986</v>
       </c>
       <c r="E16">
-        <v>0.07591973467331137</v>
+        <v>0.03240229551419027</v>
       </c>
       <c r="F16">
-        <v>4.527733853228057</v>
+        <v>3.141779694288545</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1898294779711165</v>
+        <v>0.08812747065077176</v>
       </c>
       <c r="K16">
-        <v>1.871439339904725</v>
+        <v>2.439676686640468</v>
       </c>
       <c r="L16">
-        <v>0.3320449834097872</v>
+        <v>0.2643714586619836</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.351080224747491</v>
+        <v>2.538367970558951</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.417915696213527</v>
+        <v>2.593702234264924</v>
       </c>
       <c r="C17">
-        <v>0.05076185052466542</v>
+        <v>0.1680915074050233</v>
       </c>
       <c r="D17">
-        <v>0.007608407873476608</v>
+        <v>0.005523613186301901</v>
       </c>
       <c r="E17">
-        <v>0.07592573129110569</v>
+        <v>0.0318751105927344</v>
       </c>
       <c r="F17">
-        <v>4.518185985095784</v>
+        <v>3.078769235954482</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.189920090254482</v>
+        <v>0.08754844902950509</v>
       </c>
       <c r="K17">
-        <v>1.850887495707866</v>
+        <v>2.341875246391538</v>
       </c>
       <c r="L17">
-        <v>0.3305833350945875</v>
+        <v>0.2554123441918108</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.352735913623121</v>
+        <v>2.538232990335999</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.406279045166855</v>
+        <v>2.535181376379569</v>
       </c>
       <c r="C18">
-        <v>0.04958996385917658</v>
+        <v>0.163548803959074</v>
       </c>
       <c r="D18">
-        <v>0.0075890172364943</v>
+        <v>0.005404796281061053</v>
       </c>
       <c r="E18">
-        <v>0.0759314049976787</v>
+        <v>0.03157580924180969</v>
       </c>
       <c r="F18">
-        <v>4.512851008487843</v>
+        <v>3.043072882211391</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1899768487153715</v>
+        <v>0.08722603663216688</v>
       </c>
       <c r="K18">
-        <v>1.839164406877472</v>
+        <v>2.286044495743511</v>
       </c>
       <c r="L18">
-        <v>0.3297575301814248</v>
+        <v>0.2503026321970339</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4.353773559749001</v>
+        <v>2.538447822074346</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.402359871959732</v>
+        <v>2.515443299126332</v>
       </c>
       <c r="C19">
-        <v>0.04919344674078729</v>
+        <v>0.1620155750595131</v>
       </c>
       <c r="D19">
-        <v>0.00758253431953726</v>
+        <v>0.005364556910851803</v>
       </c>
       <c r="E19">
-        <v>0.07593370849753356</v>
+        <v>0.03147513067409236</v>
       </c>
       <c r="F19">
-        <v>4.51107158846321</v>
+        <v>3.031077785136759</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1899968636038736</v>
+        <v>0.08711866175494265</v>
       </c>
       <c r="K19">
-        <v>1.835211963855272</v>
+        <v>2.267211024142028</v>
       </c>
       <c r="L19">
-        <v>0.3294804865868031</v>
+        <v>0.2485797806766925</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4.354139540347887</v>
+        <v>2.53856970071304</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.420079256747556</v>
+        <v>2.604569907408234</v>
       </c>
       <c r="C20">
-        <v>0.05097886608980673</v>
+        <v>0.1689346194295069</v>
       </c>
       <c r="D20">
-        <v>0.007612035718491228</v>
+        <v>0.005545599368906196</v>
       </c>
       <c r="E20">
-        <v>0.07592486279741451</v>
+        <v>0.03193082116159474</v>
       </c>
       <c r="F20">
-        <v>4.519186153012953</v>
+        <v>3.085419708076387</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1899099642274109</v>
+        <v>0.08760897840242521</v>
       </c>
       <c r="K20">
-        <v>1.853065153457067</v>
+        <v>2.352242065525616</v>
       </c>
       <c r="L20">
-        <v>0.3307373886184877</v>
+        <v>0.2563615163239348</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.352550829361448</v>
+        <v>2.538216827727098</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.481060257990805</v>
+        <v>2.909714751286799</v>
       </c>
       <c r="C21">
-        <v>0.05699624941152592</v>
+        <v>0.1925534887878371</v>
       </c>
       <c r="D21">
-        <v>0.007716844891795915</v>
+        <v>0.006153567278875727</v>
       </c>
       <c r="E21">
-        <v>0.07592169212409594</v>
+        <v>0.03350979508837426</v>
       </c>
       <c r="F21">
-        <v>4.548322469923477</v>
+        <v>3.274723138878784</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1896734101464759</v>
+        <v>0.08938614724027616</v>
       </c>
       <c r="K21">
-        <v>1.914217926031483</v>
+        <v>2.643180257371057</v>
       </c>
       <c r="L21">
-        <v>0.3351382958115749</v>
+        <v>0.2830428479925757</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.348232978194076</v>
+        <v>2.54061002533696</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.521992329235388</v>
+        <v>3.113885900104322</v>
       </c>
       <c r="C22">
-        <v>0.06094316962297341</v>
+        <v>0.2083099421403318</v>
       </c>
       <c r="D22">
-        <v>0.007789531154752893</v>
+        <v>0.006551194504137214</v>
       </c>
       <c r="E22">
-        <v>0.07593934050793116</v>
+        <v>0.03457998171818311</v>
       </c>
       <c r="F22">
-        <v>4.568760838496047</v>
+        <v>3.403937439567102</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1895600426868107</v>
+        <v>0.09065105296837572</v>
       </c>
       <c r="K22">
-        <v>1.955056042792592</v>
+        <v>2.837717408066794</v>
       </c>
       <c r="L22">
-        <v>0.3381469166724287</v>
+        <v>0.3009227786690758</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.346172159740973</v>
+        <v>2.545042473330454</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.500047553940249</v>
+        <v>3.004448305782546</v>
       </c>
       <c r="C23">
-        <v>0.05883530194836339</v>
+        <v>0.1998682119684076</v>
       </c>
       <c r="D23">
-        <v>0.007750357311302025</v>
+        <v>0.006338910558678634</v>
       </c>
       <c r="E23">
-        <v>0.07592812109259306</v>
+        <v>0.03400513408069195</v>
       </c>
       <c r="F23">
-        <v>4.557724719046007</v>
+        <v>3.334437948379076</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1896167804161308</v>
+        <v>0.0899660325491638</v>
       </c>
       <c r="K23">
-        <v>1.933180228689281</v>
+        <v>2.733454715055927</v>
       </c>
       <c r="L23">
-        <v>0.336529060155442</v>
+        <v>0.2913365722792918</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.347202352062666</v>
+        <v>2.542400714507266</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.41910075047781</v>
+        <v>2.599655293454703</v>
       </c>
       <c r="C24">
-        <v>0.05088075019556015</v>
+        <v>0.1685533632999068</v>
       </c>
       <c r="D24">
-        <v>0.007610394108612084</v>
+        <v>0.005535659724774433</v>
       </c>
       <c r="E24">
-        <v>0.07592524850835858</v>
+        <v>0.03190562266165031</v>
       </c>
       <c r="F24">
-        <v>4.518733496718625</v>
+        <v>3.082411388081027</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.189914527674528</v>
+        <v>0.08758158054018139</v>
       </c>
       <c r="K24">
-        <v>1.852080346456262</v>
+        <v>2.347553998044731</v>
       </c>
       <c r="L24">
-        <v>0.3306676958023758</v>
+        <v>0.2559322684913781</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4.352634238794508</v>
+        <v>2.538223226795026</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.33641530885842</v>
+        <v>2.180256393600018</v>
       </c>
       <c r="C25">
-        <v>0.04235929651500214</v>
+        <v>0.135881471758978</v>
       </c>
       <c r="D25">
-        <v>0.007477739695913144</v>
+        <v>0.004667342577059586</v>
       </c>
       <c r="E25">
-        <v>0.07600725391176688</v>
+        <v>0.02978932658321298</v>
       </c>
       <c r="F25">
-        <v>4.482665705421596</v>
+        <v>2.831125058161248</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1904131722146971</v>
+        <v>0.08541170709414558</v>
       </c>
       <c r="K25">
-        <v>1.76833905723737</v>
+        <v>1.947139573768368</v>
       </c>
       <c r="L25">
-        <v>0.3249149307801673</v>
+        <v>0.2193734998221402</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.361755317418869</v>
+        <v>2.544777817873623</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.883156662534844</v>
+        <v>3.250247697579482</v>
       </c>
       <c r="C2">
-        <v>0.1125111076103877</v>
+        <v>0.9087309997929367</v>
       </c>
       <c r="D2">
-        <v>0.004023642083891943</v>
+        <v>0.0475436724938394</v>
       </c>
       <c r="E2">
-        <v>0.02834279774383219</v>
+        <v>0.04489259672870549</v>
       </c>
       <c r="F2">
-        <v>2.660796483878372</v>
+        <v>1.886984629902855</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002072616046703946</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001470027067577817</v>
       </c>
       <c r="J2">
-        <v>0.08411845999874146</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>1.662928936276614</v>
+        <v>1.053970640865174</v>
       </c>
       <c r="L2">
-        <v>0.1935893325531808</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.557895505571494</v>
+        <v>0.1883715758748465</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5406748502888661</v>
+      </c>
+      <c r="P2">
+        <v>1.080499072499656</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.687742364386452</v>
+        <v>2.832060558609101</v>
       </c>
       <c r="C3">
-        <v>0.09698527791633182</v>
+        <v>0.7854992099766207</v>
       </c>
       <c r="D3">
-        <v>0.003583716766389244</v>
+        <v>0.04720438589757237</v>
       </c>
       <c r="E3">
-        <v>0.02742514987815525</v>
+        <v>0.0395623964700702</v>
       </c>
       <c r="F3">
-        <v>2.553218824091175</v>
+        <v>1.711538491026488</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004104425894530195</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0032685948890121</v>
       </c>
       <c r="J3">
-        <v>0.08341376274222867</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>1.475619940463986</v>
+        <v>0.984300743701148</v>
       </c>
       <c r="L3">
-        <v>0.1767048262457038</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.571426117653274</v>
+        <v>0.1667490145551866</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4726611538144923</v>
+      </c>
+      <c r="P3">
+        <v>1.105743267794274</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.570279477217213</v>
+        <v>2.575479863005057</v>
       </c>
       <c r="C4">
-        <v>0.08757257733131496</v>
+        <v>0.7107041345526852</v>
       </c>
       <c r="D4">
-        <v>0.003311566114064135</v>
+        <v>0.04695660539299595</v>
       </c>
       <c r="E4">
-        <v>0.0268905551752443</v>
+        <v>0.03636264572875092</v>
       </c>
       <c r="F4">
-        <v>2.490652915791784</v>
+        <v>1.604921650814248</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005745387999948059</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.004904213224087961</v>
       </c>
       <c r="J4">
-        <v>0.08306041284695453</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>1.362838095217739</v>
+        <v>0.9418079555383869</v>
       </c>
       <c r="L4">
-        <v>0.1665937041058783</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.581865807871509</v>
+        <v>0.1535327739842387</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4309449699614234</v>
+      </c>
+      <c r="P4">
+        <v>1.121503808010594</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.522991739456586</v>
+        <v>2.468879832100981</v>
       </c>
       <c r="C5">
-        <v>0.08376245723502507</v>
+        <v>0.6807845959606027</v>
       </c>
       <c r="D5">
-        <v>0.003200129121111672</v>
+        <v>0.04680161726706267</v>
       </c>
       <c r="E5">
-        <v>0.02667967591592024</v>
+        <v>0.035070700056691</v>
       </c>
       <c r="F5">
-        <v>2.465980766936994</v>
+        <v>1.559913398295748</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.006513417234094376</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005778705371803472</v>
       </c>
       <c r="J5">
-        <v>0.08293563401267434</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>1.317385623562842</v>
+        <v>0.9232559972774368</v>
       </c>
       <c r="L5">
-        <v>0.1625329916414131</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.586634527021175</v>
+        <v>0.1482051863521576</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4137206535635158</v>
+      </c>
+      <c r="P5">
+        <v>1.12722644479113</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.515173102757984</v>
+        <v>2.448671756258818</v>
       </c>
       <c r="C6">
-        <v>0.08313120954095155</v>
+        <v>0.6762823211234092</v>
       </c>
       <c r="D6">
-        <v>0.003181592385073984</v>
+        <v>0.04672148434982759</v>
       </c>
       <c r="E6">
-        <v>0.02664507284033668</v>
+        <v>0.0348535017750633</v>
       </c>
       <c r="F6">
-        <v>2.461932261802247</v>
+        <v>1.550248528431609</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006653697488957222</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00603907275274107</v>
       </c>
       <c r="J6">
-        <v>0.08291605449667117</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>1.309867422531454</v>
+        <v>0.9185969482460621</v>
       </c>
       <c r="L6">
-        <v>0.1618621840183323</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.587456838273397</v>
+        <v>0.1473783898261587</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4105800855804418</v>
+      </c>
+      <c r="P6">
+        <v>1.127253854442749</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.569639462376045</v>
+        <v>2.567166452997185</v>
       </c>
       <c r="C7">
-        <v>0.08752109477813974</v>
+        <v>0.7115456395353306</v>
       </c>
       <c r="D7">
-        <v>0.003310065418808961</v>
+        <v>0.04680774600360493</v>
       </c>
       <c r="E7">
-        <v>0.02688768331006841</v>
+        <v>0.03633545866039611</v>
       </c>
       <c r="F7">
-        <v>2.490316909674945</v>
+        <v>1.598278851817582</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005773443729794159</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.005190418736491509</v>
       </c>
       <c r="J7">
-        <v>0.08305865317467465</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>1.362223121522504</v>
+        <v>0.9372303298702036</v>
       </c>
       <c r="L7">
-        <v>0.1665387044083673</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.58192806489896</v>
+        <v>0.1536177273862265</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.429943112530438</v>
+      </c>
+      <c r="P7">
+        <v>1.119064400211023</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.815220025125001</v>
+        <v>3.096766154678221</v>
       </c>
       <c r="C8">
-        <v>0.1071299728893536</v>
+        <v>0.8676991733978525</v>
       </c>
       <c r="D8">
-        <v>0.003872362504905524</v>
+        <v>0.04724258654837676</v>
       </c>
       <c r="E8">
-        <v>0.02802023065852666</v>
+        <v>0.04302336180884314</v>
       </c>
       <c r="F8">
-        <v>2.622946903827184</v>
+        <v>1.818200456366711</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002703941868928972</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002290965040966597</v>
       </c>
       <c r="J8">
-        <v>0.08385855483249571</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>1.597849639029647</v>
+        <v>1.024129190689912</v>
       </c>
       <c r="L8">
-        <v>0.1877114620206228</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.562104906967463</v>
+        <v>0.1811109591756264</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5161777995277674</v>
+      </c>
+      <c r="P8">
+        <v>1.085886120257825</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.319518752312717</v>
+        <v>4.151343991684826</v>
       </c>
       <c r="C9">
-        <v>0.1467639891222063</v>
+        <v>1.180052387343608</v>
       </c>
       <c r="D9">
-        <v>0.004960359175512963</v>
+        <v>0.04803517998790419</v>
       </c>
       <c r="E9">
-        <v>0.03048385782503971</v>
+        <v>0.05690882654265472</v>
       </c>
       <c r="F9">
-        <v>2.913301895375469</v>
+        <v>2.270953901834773</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.501988268408198E-05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0008069239846104637</v>
       </c>
       <c r="J9">
-        <v>0.08609275287911089</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>2.080183132056874</v>
+        <v>1.20525351939412</v>
       </c>
       <c r="L9">
-        <v>0.2314954572251366</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.541205748548066</v>
+        <v>0.2353962059116697</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.6873654510185432</v>
+      </c>
+      <c r="P9">
+        <v>1.027518665205072</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.708009682047816</v>
+        <v>4.899256190384506</v>
       </c>
       <c r="C10">
-        <v>0.1769522392375222</v>
+        <v>1.418610167258123</v>
       </c>
       <c r="D10">
-        <v>0.005753672881340322</v>
+        <v>0.04767921615577819</v>
       </c>
       <c r="E10">
-        <v>0.03246299309704703</v>
+        <v>0.06920055323180385</v>
       </c>
       <c r="F10">
-        <v>3.14904560815512</v>
+        <v>2.579388320380133</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0006876988749704438</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.003120317865808353</v>
       </c>
       <c r="J10">
-        <v>0.08819500931258872</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>2.450895749015757</v>
+        <v>1.318713588370301</v>
       </c>
       <c r="L10">
-        <v>0.2653998097916457</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.53842385487377</v>
+        <v>0.2635789440177518</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8010446501278992</v>
+      </c>
+      <c r="P10">
+        <v>0.9740725905662231</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.889676231731755</v>
+        <v>4.979343943400011</v>
       </c>
       <c r="C11">
-        <v>0.1910052908261122</v>
+        <v>1.54107784610062</v>
       </c>
       <c r="D11">
-        <v>0.00611416679171839</v>
+        <v>0.04269750059057742</v>
       </c>
       <c r="E11">
-        <v>0.03340530564508448</v>
+        <v>0.09167328309803935</v>
       </c>
       <c r="F11">
-        <v>3.262146802547335</v>
+        <v>2.45123275539973</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0193522210618795</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004559902476046318</v>
       </c>
       <c r="J11">
-        <v>0.0892651059795142</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>2.624082302264128</v>
+        <v>1.192733462577522</v>
       </c>
       <c r="L11">
-        <v>0.2812890900033125</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.540292118371212</v>
+        <v>0.1805313888535096</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7439491000564615</v>
+      </c>
+      <c r="P11">
+        <v>0.8632102356924953</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.959274094452439</v>
+        <v>4.896910665075552</v>
       </c>
       <c r="C12">
-        <v>0.1963810431350197</v>
+        <v>1.59184623777503</v>
       </c>
       <c r="D12">
-        <v>0.006250716764938602</v>
+        <v>0.04026070735224696</v>
       </c>
       <c r="E12">
-        <v>0.03376865479334334</v>
+        <v>0.1143787924399291</v>
       </c>
       <c r="F12">
-        <v>3.305909772224453</v>
+        <v>2.289251088758533</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05792574335419687</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004667881118775696</v>
       </c>
       <c r="J12">
-        <v>0.08968795450022782</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>2.690409358926729</v>
+        <v>1.073942275335668</v>
       </c>
       <c r="L12">
-        <v>0.2873811199853691</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.541488151808323</v>
+        <v>0.1203734141935868</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6751327885581091</v>
+      </c>
+      <c r="P12">
+        <v>0.8005710219875404</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.944247554126832</v>
+        <v>4.674054019013624</v>
       </c>
       <c r="C13">
-        <v>0.1952207308101208</v>
+        <v>1.591394695186182</v>
       </c>
       <c r="D13">
-        <v>0.006221304836035557</v>
+        <v>0.03938360291589849</v>
       </c>
       <c r="E13">
-        <v>0.03369010315249632</v>
+        <v>0.1381252706635969</v>
       </c>
       <c r="F13">
-        <v>3.296441537015824</v>
+        <v>2.082558302202941</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1134260112994241</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.004027645351404985</v>
       </c>
       <c r="J13">
-        <v>0.08959608101570993</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>2.676089949616227</v>
+        <v>0.9473363363637546</v>
       </c>
       <c r="L13">
-        <v>0.2860656142806164</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.541208187862139</v>
+        <v>0.07488622569569614</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5927043310536675</v>
+      </c>
+      <c r="P13">
+        <v>0.7667124035856077</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.895385387665897</v>
+        <v>4.453878706511489</v>
       </c>
       <c r="C14">
-        <v>0.1914464219625103</v>
+        <v>1.568357132137407</v>
       </c>
       <c r="D14">
-        <v>0.006125399448848157</v>
+        <v>0.03964874621749814</v>
       </c>
       <c r="E14">
-        <v>0.03343506510908334</v>
+        <v>0.155829183644375</v>
       </c>
       <c r="F14">
-        <v>3.26572793250628</v>
+        <v>1.917860850596838</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.162585657840097</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003399877254771866</v>
       </c>
       <c r="J14">
-        <v>0.08929953301020888</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>2.629523580791357</v>
+        <v>0.8556212987827649</v>
       </c>
       <c r="L14">
-        <v>0.2817887304662463</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.540380493435777</v>
+        <v>0.05213563811765454</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5296227243016602</v>
+      </c>
+      <c r="P14">
+        <v>0.7576597769300892</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.86556365857416</v>
+        <v>4.368514722008513</v>
       </c>
       <c r="C15">
-        <v>0.18914185889831</v>
+        <v>1.552341213003615</v>
       </c>
       <c r="D15">
-        <v>0.006066662830679803</v>
+        <v>0.03986195178018548</v>
       </c>
       <c r="E15">
-        <v>0.03327971046503109</v>
+        <v>0.1594765036710974</v>
       </c>
       <c r="F15">
-        <v>3.247039470012965</v>
+        <v>1.866290297638997</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1750270967550023</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003231854903963161</v>
       </c>
       <c r="J15">
-        <v>0.08912022403310615</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>2.601100232281567</v>
+        <v>0.8299098256220034</v>
       </c>
       <c r="L15">
-        <v>0.2791790506984881</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.539938327022469</v>
+        <v>0.04768590080853308</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5110067382687262</v>
+      </c>
+      <c r="P15">
+        <v>0.7592613098095236</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.696244596462407</v>
+        <v>4.092995709177956</v>
       </c>
       <c r="C16">
-        <v>0.1760409574423107</v>
+        <v>1.448599182165992</v>
       </c>
       <c r="D16">
-        <v>0.005730113576372986</v>
+        <v>0.04012375494158604</v>
       </c>
       <c r="E16">
-        <v>0.03240229551419027</v>
+        <v>0.1483187216029016</v>
       </c>
       <c r="F16">
-        <v>3.141779694288545</v>
+        <v>1.775374504758119</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1620866599390922</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002319432803013832</v>
       </c>
       <c r="J16">
-        <v>0.08812747065077176</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>2.439676686640468</v>
+        <v>0.8069067294644086</v>
       </c>
       <c r="L16">
-        <v>0.2643714586619836</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.538367970558951</v>
+        <v>0.04656575617747905</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4811097288898338</v>
+      </c>
+      <c r="P16">
+        <v>0.7862049057267306</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.593702234264924</v>
+        <v>3.99790447137417</v>
       </c>
       <c r="C17">
-        <v>0.1680915074050233</v>
+        <v>1.381825240165881</v>
       </c>
       <c r="D17">
-        <v>0.005523613186301901</v>
+        <v>0.04005131919555183</v>
       </c>
       <c r="E17">
-        <v>0.0318751105927344</v>
+        <v>0.1300178252741944</v>
       </c>
       <c r="F17">
-        <v>3.078769235954482</v>
+        <v>1.792210255777078</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242871271909536</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.00202559729005003</v>
       </c>
       <c r="J17">
-        <v>0.08754844902950509</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>2.341875246391538</v>
+        <v>0.8369433018151682</v>
       </c>
       <c r="L17">
-        <v>0.2554123441918108</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.538232990335999</v>
+        <v>0.05606890889588456</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4909564760919167</v>
+      </c>
+      <c r="P17">
+        <v>0.8105993773035238</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.535181376379569</v>
+        <v>4.051735048269791</v>
       </c>
       <c r="C18">
-        <v>0.163548803959074</v>
+        <v>1.33759410977126</v>
       </c>
       <c r="D18">
-        <v>0.005404796281061053</v>
+        <v>0.04040960961072804</v>
       </c>
       <c r="E18">
-        <v>0.03157580924180969</v>
+        <v>0.1063202329545341</v>
       </c>
       <c r="F18">
-        <v>3.043072882211391</v>
+        <v>1.909605848714122</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07145978563134747</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001741233820373722</v>
       </c>
       <c r="J18">
-        <v>0.08722603663216688</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>2.286044495743511</v>
+        <v>0.9217772609018766</v>
       </c>
       <c r="L18">
-        <v>0.2503026321970339</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.538447822074346</v>
+        <v>0.08378551321332495</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5380993470499646</v>
+      </c>
+      <c r="P18">
+        <v>0.8441337013749628</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.515443299126332</v>
+        <v>4.209144904230868</v>
       </c>
       <c r="C19">
-        <v>0.1620155750595131</v>
+        <v>1.317126296503886</v>
       </c>
       <c r="D19">
-        <v>0.005364556910851803</v>
+        <v>0.04211458193054174</v>
       </c>
       <c r="E19">
-        <v>0.03147513067409236</v>
+        <v>0.08419024638762806</v>
       </c>
       <c r="F19">
-        <v>3.031077785136759</v>
+        <v>2.093318710031085</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02619887165987933</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001968804588760698</v>
       </c>
       <c r="J19">
-        <v>0.08711866175494265</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>2.267211024142028</v>
+        <v>1.042844747265875</v>
       </c>
       <c r="L19">
-        <v>0.2485797806766925</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.53856970071304</v>
+        <v>0.1365187359021007</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.613320098601136</v>
+      </c>
+      <c r="P19">
+        <v>0.8924833531141587</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.604569907408234</v>
+        <v>4.678862972657782</v>
       </c>
       <c r="C20">
-        <v>0.1689346194295069</v>
+        <v>1.359367394542232</v>
       </c>
       <c r="D20">
-        <v>0.005545599368906196</v>
+        <v>0.04733179135153698</v>
       </c>
       <c r="E20">
-        <v>0.03193082116159474</v>
+        <v>0.06591703784671665</v>
       </c>
       <c r="F20">
-        <v>3.085419708076387</v>
+        <v>2.477276334763289</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0003205179027632177</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002973998932665367</v>
       </c>
       <c r="J20">
-        <v>0.08760897840242521</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>2.352242065525616</v>
+        <v>1.274260778428982</v>
       </c>
       <c r="L20">
-        <v>0.2563615163239348</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.538216827727098</v>
+        <v>0.2561059698588082</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.76811396369839</v>
+      </c>
+      <c r="P20">
+        <v>0.980305650805569</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.909714751286799</v>
+        <v>5.304022736612183</v>
       </c>
       <c r="C21">
-        <v>0.1925534887878371</v>
+        <v>1.542917567177426</v>
       </c>
       <c r="D21">
-        <v>0.006153567278875727</v>
+        <v>0.04810507042679646</v>
       </c>
       <c r="E21">
-        <v>0.03350979508837426</v>
+        <v>0.07354407400366014</v>
       </c>
       <c r="F21">
-        <v>3.274723138878784</v>
+        <v>2.768609772344576</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001525041757266088</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.005914794172489302</v>
       </c>
       <c r="J21">
-        <v>0.08938614724027616</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>2.643180257371057</v>
+        <v>1.396637133598276</v>
       </c>
       <c r="L21">
-        <v>0.2830428479925757</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.54061002533696</v>
+        <v>0.2971684066716733</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.8757500717488966</v>
+      </c>
+      <c r="P21">
+        <v>0.9588796002792677</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.113885900104322</v>
+        <v>5.709637953200343</v>
       </c>
       <c r="C22">
-        <v>0.2083099421403318</v>
+        <v>1.663926483018201</v>
       </c>
       <c r="D22">
-        <v>0.006551194504137214</v>
+        <v>0.04841883043634887</v>
       </c>
       <c r="E22">
-        <v>0.03457998171818311</v>
+        <v>0.07946844150418642</v>
       </c>
       <c r="F22">
-        <v>3.403937439567102</v>
+        <v>2.954305636032018</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002964481591894552</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.008352917157125717</v>
       </c>
       <c r="J22">
-        <v>0.09065105296837572</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>2.837717408066794</v>
+        <v>1.472948637373861</v>
       </c>
       <c r="L22">
-        <v>0.3009227786690758</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.545042473330454</v>
+        <v>0.3176712515829507</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.9411074618933242</v>
+      </c>
+      <c r="P22">
+        <v>0.9426606644148237</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.004448305782546</v>
+        <v>5.501525457733464</v>
       </c>
       <c r="C23">
-        <v>0.1998682119684076</v>
+        <v>1.597637186869861</v>
       </c>
       <c r="D23">
-        <v>0.006338910558678634</v>
+        <v>0.04841953281672673</v>
       </c>
       <c r="E23">
-        <v>0.03400513408069195</v>
+        <v>0.0763019767066897</v>
       </c>
       <c r="F23">
-        <v>3.334437948379076</v>
+        <v>2.862243686925609</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002150262891842614</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.006717688980848457</v>
       </c>
       <c r="J23">
-        <v>0.0899660325491638</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>2.733454715055927</v>
+        <v>1.437325108855731</v>
       </c>
       <c r="L23">
-        <v>0.2913365722792918</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.542400714507266</v>
+        <v>0.3065165126058815</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9071532369402462</v>
+      </c>
+      <c r="P23">
+        <v>0.953988842350519</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.599655293454703</v>
+        <v>4.704214674519449</v>
       </c>
       <c r="C24">
-        <v>0.1685533632999068</v>
+        <v>1.353221945632413</v>
       </c>
       <c r="D24">
-        <v>0.005535659724774433</v>
+        <v>0.04808689530764454</v>
       </c>
       <c r="E24">
-        <v>0.03190562266165031</v>
+        <v>0.06473702489165767</v>
       </c>
       <c r="F24">
-        <v>3.082411388081027</v>
+        <v>2.50763799707488</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0002307835998420771</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002540754141257651</v>
       </c>
       <c r="J24">
-        <v>0.08758158054018139</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>2.347553998044731</v>
+        <v>1.296143653660906</v>
       </c>
       <c r="L24">
-        <v>0.2559322684913781</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.538223226795026</v>
+        <v>0.2650009040411021</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.7777598261829723</v>
+      </c>
+      <c r="P24">
+        <v>0.9936482515107556</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.180256393600018</v>
+        <v>3.85254594659034</v>
       </c>
       <c r="C25">
-        <v>0.135881471758978</v>
+        <v>1.096714323830042</v>
       </c>
       <c r="D25">
-        <v>0.004667342577059586</v>
+        <v>0.04759824348821873</v>
       </c>
       <c r="E25">
-        <v>0.02978932658321298</v>
+        <v>0.0530247236420287</v>
       </c>
       <c r="F25">
-        <v>2.831125058161248</v>
+        <v>2.136001032628343</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0003767473890841089</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001076412499246615</v>
       </c>
       <c r="J25">
-        <v>0.08541170709414558</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>1.947139573768368</v>
+        <v>1.147947190206168</v>
       </c>
       <c r="L25">
-        <v>0.2193734998221402</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.544777817873623</v>
+        <v>0.2209035340811027</v>
       </c>
       <c r="O25">
+        <v>0.6394960794083531</v>
+      </c>
+      <c r="P25">
+        <v>1.038703546643532</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.250247697579482</v>
+        <v>2.921419656827197</v>
       </c>
       <c r="C2">
-        <v>0.9087309997929367</v>
+        <v>0.9704926792429376</v>
       </c>
       <c r="D2">
-        <v>0.0475436724938394</v>
+        <v>0.03879405794249635</v>
       </c>
       <c r="E2">
-        <v>0.04489259672870549</v>
+        <v>0.04662978081151081</v>
       </c>
       <c r="F2">
-        <v>1.886984629902855</v>
+        <v>1.58341823304427</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.002072616046703946</v>
+        <v>0.00149573572909345</v>
       </c>
       <c r="I2">
-        <v>0.001470027067577817</v>
+        <v>0.0009936133939376646</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>1.053970640865174</v>
+        <v>0.8287173934046876</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3631640268217851</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2644439274574282</v>
       </c>
       <c r="N2">
-        <v>0.1883715758748465</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5406748502888661</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.080499072499656</v>
+        <v>0.2033145231357167</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5037936962942382</v>
+      </c>
+      <c r="R2">
+        <v>0.9449267687853471</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.832060558609101</v>
+        <v>2.553938281527451</v>
       </c>
       <c r="C3">
-        <v>0.7854992099766207</v>
+        <v>0.8372480006056264</v>
       </c>
       <c r="D3">
-        <v>0.04720438589757237</v>
+        <v>0.03877257186071859</v>
       </c>
       <c r="E3">
-        <v>0.0395623964700702</v>
+        <v>0.04144518638700845</v>
       </c>
       <c r="F3">
-        <v>1.711538491026488</v>
+        <v>1.448090201948688</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.004104425894530195</v>
+        <v>0.003072977909052477</v>
       </c>
       <c r="I3">
-        <v>0.0032685948890121</v>
+        <v>0.002109044565316687</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.984300743701148</v>
+        <v>0.7857036353383151</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3553497027616643</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2407594974518759</v>
       </c>
       <c r="N3">
-        <v>0.1667490145551866</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4726611538144923</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.105743267794274</v>
+        <v>0.1808118056947094</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4415415040007815</v>
+      </c>
+      <c r="R3">
+        <v>0.9783232959613208</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.575479863005057</v>
+        <v>2.327750737104623</v>
       </c>
       <c r="C4">
-        <v>0.7107041345526852</v>
+        <v>0.7563624088766971</v>
       </c>
       <c r="D4">
-        <v>0.04695660539299595</v>
+        <v>0.03873036072946978</v>
       </c>
       <c r="E4">
-        <v>0.03636264572875092</v>
+        <v>0.03831767161150967</v>
       </c>
       <c r="F4">
-        <v>1.604921650814248</v>
+        <v>1.365654339418768</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.005745387999948059</v>
+        <v>0.004363187087848663</v>
       </c>
       <c r="I4">
-        <v>0.004904213224087961</v>
+        <v>0.003208872549821606</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.9418079555383869</v>
+        <v>0.7593360689272259</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3501809302003167</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2271765243777253</v>
       </c>
       <c r="N4">
-        <v>0.1535327739842387</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4309449699614234</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.121503808010594</v>
+        <v>0.1670485963752739</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.403277915071655</v>
+      </c>
+      <c r="R4">
+        <v>0.9992071997398675</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.468879832100981</v>
+        <v>2.233583503937211</v>
       </c>
       <c r="C5">
-        <v>0.6807845959606027</v>
+        <v>0.7239680840010294</v>
       </c>
       <c r="D5">
-        <v>0.04680161726706267</v>
+        <v>0.03868629520287747</v>
       </c>
       <c r="E5">
-        <v>0.035070700056691</v>
+        <v>0.03705183325694605</v>
       </c>
       <c r="F5">
-        <v>1.559913398295748</v>
+        <v>1.330645611651462</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006513417234094376</v>
+        <v>0.004970271232247359</v>
       </c>
       <c r="I5">
-        <v>0.005778705371803472</v>
+        <v>0.003847801955249253</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.9232559972774368</v>
+        <v>0.7475339123806108</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3475272034656101</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2215335272844783</v>
       </c>
       <c r="N5">
-        <v>0.1482051863521576</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4137206535635158</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.12722644479113</v>
+        <v>0.1614953220205138</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3874622433044763</v>
+      </c>
+      <c r="R5">
+        <v>1.007342305856593</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.448671756258818</v>
+        <v>2.215698412086283</v>
       </c>
       <c r="C6">
-        <v>0.6762823211234092</v>
+        <v>0.7190456991235123</v>
       </c>
       <c r="D6">
-        <v>0.04672148434982759</v>
+        <v>0.03865481859969266</v>
       </c>
       <c r="E6">
-        <v>0.0348535017750633</v>
+        <v>0.03683930456036677</v>
       </c>
       <c r="F6">
-        <v>1.550248528431609</v>
+        <v>1.322941367182423</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006653697488957222</v>
+        <v>0.00508141400219142</v>
       </c>
       <c r="I6">
-        <v>0.00603907275274107</v>
+        <v>0.004081286621596902</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.9185969482460621</v>
+        <v>0.7442796585518963</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3465278831840592</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2201913324573361</v>
       </c>
       <c r="N6">
-        <v>0.1473783898261587</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4105800855804418</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.127253854442749</v>
+        <v>0.1606288180543913</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3845803848504445</v>
+      </c>
+      <c r="R6">
+        <v>1.008132464189771</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.567166452997185</v>
+        <v>2.320349100861506</v>
       </c>
       <c r="C7">
-        <v>0.7115456395353306</v>
+        <v>0.7571433318690879</v>
       </c>
       <c r="D7">
-        <v>0.04680774600360493</v>
+        <v>0.03866652150812655</v>
       </c>
       <c r="E7">
-        <v>0.03633545866039611</v>
+        <v>0.0382924760768395</v>
       </c>
       <c r="F7">
-        <v>1.598278851817582</v>
+        <v>1.359994198730789</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.005773443729794159</v>
+        <v>0.004385517088614899</v>
       </c>
       <c r="I7">
-        <v>0.005190418736491509</v>
+        <v>0.003527921947730661</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.9372303298702036</v>
+        <v>0.7556452477050044</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3486586153102351</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2259335333562902</v>
       </c>
       <c r="N7">
-        <v>0.1536177273862265</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.429943112530438</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.119064400211023</v>
+        <v>0.1671247563265084</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4023668735151489</v>
+      </c>
+      <c r="R7">
+        <v>0.9977995812723606</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.096766154678221</v>
+        <v>2.786611738108661</v>
       </c>
       <c r="C8">
-        <v>0.8676991733978525</v>
+        <v>0.9259632402580564</v>
       </c>
       <c r="D8">
-        <v>0.04724258654837676</v>
+        <v>0.03871647523485433</v>
       </c>
       <c r="E8">
-        <v>0.04302336180884314</v>
+        <v>0.04481741172129361</v>
       </c>
       <c r="F8">
-        <v>1.818200456366711</v>
+        <v>1.529733444484762</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.002703941868928972</v>
+        <v>0.001982454809782208</v>
       </c>
       <c r="I8">
-        <v>0.002290965040966597</v>
+        <v>0.001651949947979681</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>1.024129190689912</v>
+        <v>0.8092188651489138</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3586765248974544</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2544459295991714</v>
       </c>
       <c r="N8">
-        <v>0.1811109591756264</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5161777995277674</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.085886120257825</v>
+        <v>0.1957455885084514</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4814010781616886</v>
+      </c>
+      <c r="R8">
+        <v>0.9544854757790091</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.151343991684826</v>
+        <v>3.709002072642761</v>
       </c>
       <c r="C9">
-        <v>1.180052387343608</v>
+        <v>1.263603194547102</v>
       </c>
       <c r="D9">
-        <v>0.04803517998790419</v>
+        <v>0.03867974241617222</v>
       </c>
       <c r="E9">
-        <v>0.05690882654265472</v>
+        <v>0.05821608787333687</v>
       </c>
       <c r="F9">
-        <v>2.270953901834773</v>
+        <v>1.878448810906534</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5.501988268408198E-05</v>
+        <v>1.857740499122684E-05</v>
       </c>
       <c r="I9">
-        <v>0.0008069239846104637</v>
+        <v>0.001092215184058887</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.20525351939412</v>
+        <v>0.9213291036103115</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3779186304272031</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3205373823345141</v>
       </c>
       <c r="N9">
-        <v>0.2353962059116697</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6873654510185432</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1.027518665205072</v>
+        <v>0.2521668990496835</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.637566351162242</v>
+      </c>
+      <c r="R9">
+        <v>0.8752390161365824</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.899256190384506</v>
+        <v>4.361559612220219</v>
       </c>
       <c r="C10">
-        <v>1.418610167258123</v>
+        <v>1.520055261033519</v>
       </c>
       <c r="D10">
-        <v>0.04767921615577819</v>
+        <v>0.03830998172781852</v>
       </c>
       <c r="E10">
-        <v>0.06920055323180385</v>
+        <v>0.07011506633278586</v>
       </c>
       <c r="F10">
-        <v>2.579388320380133</v>
+        <v>2.114622977212761</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0006876988749704438</v>
+        <v>0.0006897435380004424</v>
       </c>
       <c r="I10">
-        <v>0.003120317865808353</v>
+        <v>0.003351885406742028</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.318713588370301</v>
+        <v>0.9885367336745219</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3845323092252713</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3680043172520371</v>
       </c>
       <c r="N10">
-        <v>0.2635789440177518</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8010446501278992</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9740725905662231</v>
+        <v>0.2812704944224009</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7406715951800251</v>
+      </c>
+      <c r="R10">
+        <v>0.813624779358868</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.979343943400011</v>
+        <v>4.454506543201887</v>
       </c>
       <c r="C11">
-        <v>1.54107784610062</v>
+        <v>1.64324486331634</v>
       </c>
       <c r="D11">
-        <v>0.04269750059057742</v>
+        <v>0.03756836990347612</v>
       </c>
       <c r="E11">
-        <v>0.09167328309803935</v>
+        <v>0.09324461132580453</v>
       </c>
       <c r="F11">
-        <v>2.45123275539973</v>
+        <v>2.013335568896323</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0193522210618795</v>
+        <v>0.01932689884550953</v>
       </c>
       <c r="I11">
-        <v>0.004559902476046318</v>
+        <v>0.004808884571985139</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.192733462577522</v>
+        <v>0.8911001951697912</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3420814640885581</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3391296594717517</v>
       </c>
       <c r="N11">
-        <v>0.1805313888535096</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7439491000564615</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8632102356924953</v>
+        <v>0.1940376414183049</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6876201174101908</v>
+      </c>
+      <c r="R11">
+        <v>0.7517822810558865</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.896910665075552</v>
+        <v>4.402414917620888</v>
       </c>
       <c r="C12">
-        <v>1.59184623777503</v>
+        <v>1.690580965741276</v>
       </c>
       <c r="D12">
-        <v>0.04026070735224696</v>
+        <v>0.03827196905724506</v>
       </c>
       <c r="E12">
-        <v>0.1143787924399291</v>
+        <v>0.1165246623854301</v>
       </c>
       <c r="F12">
-        <v>2.289251088758533</v>
+        <v>1.887188338252059</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05792574335419687</v>
+        <v>0.05790741188789639</v>
       </c>
       <c r="I12">
-        <v>0.004667881118775696</v>
+        <v>0.004929906831188546</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.073942275335668</v>
+        <v>0.8036267265458932</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.308768922597352</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3073927059456665</v>
       </c>
       <c r="N12">
-        <v>0.1203734141935868</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6751327885581091</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8005710219875404</v>
+        <v>0.130396862449409</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.624186463295672</v>
+      </c>
+      <c r="R12">
+        <v>0.7271893805058061</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.674054019013624</v>
+        <v>4.226128322722104</v>
       </c>
       <c r="C13">
-        <v>1.591394695186182</v>
+        <v>1.683262733817571</v>
       </c>
       <c r="D13">
-        <v>0.03938360291589849</v>
+        <v>0.03995548687706219</v>
       </c>
       <c r="E13">
-        <v>0.1381252706635969</v>
+        <v>0.1408138411213073</v>
       </c>
       <c r="F13">
-        <v>2.082558302202941</v>
+        <v>1.726365896423175</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1134260112994241</v>
+        <v>0.1134342487763291</v>
       </c>
       <c r="I13">
-        <v>0.004027645351404985</v>
+        <v>0.004380914681066272</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.9473363363637546</v>
+        <v>0.713250428323235</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2778702491632927</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.270002992179208</v>
       </c>
       <c r="N13">
-        <v>0.07488622569569614</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5927043310536675</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7667124035856077</v>
+        <v>0.08178684440383677</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5484807872085113</v>
+      </c>
+      <c r="R13">
+        <v>0.7262478562551991</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.453878706511489</v>
+        <v>4.045605031760374</v>
       </c>
       <c r="C14">
-        <v>1.568357132137407</v>
+        <v>1.653847452807611</v>
       </c>
       <c r="D14">
-        <v>0.03964874621749814</v>
+        <v>0.0416971546021685</v>
       </c>
       <c r="E14">
-        <v>0.155829183644375</v>
+        <v>0.1588639064109323</v>
       </c>
       <c r="F14">
-        <v>1.917860850596838</v>
+        <v>1.597921475984023</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.162585657840097</v>
+        <v>0.162607535719701</v>
       </c>
       <c r="I14">
-        <v>0.003399877254771866</v>
+        <v>0.003843446262043138</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.8556212987827649</v>
+        <v>0.6487479279721313</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2570340804564637</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2416522546985362</v>
       </c>
       <c r="N14">
-        <v>0.05213563811765454</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5296227243016602</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7576597769300892</v>
+        <v>0.05707093329350599</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4906008741181864</v>
+      </c>
+      <c r="R14">
+        <v>0.7373323790870074</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.368514722008513</v>
+        <v>3.973434469414656</v>
       </c>
       <c r="C15">
-        <v>1.552341213003615</v>
+        <v>1.635577793676759</v>
       </c>
       <c r="D15">
-        <v>0.03986195178018548</v>
+        <v>0.04219903513919476</v>
       </c>
       <c r="E15">
-        <v>0.1594765036710974</v>
+        <v>0.1625943694493195</v>
       </c>
       <c r="F15">
-        <v>1.866290297638997</v>
+        <v>1.557571315033982</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1750270967550023</v>
+        <v>0.1750498536441398</v>
       </c>
       <c r="I15">
-        <v>0.003231854903963161</v>
+        <v>0.003724971183670434</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.8299098256220034</v>
+        <v>0.6310210910250689</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.25177965356675</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2331971259554422</v>
       </c>
       <c r="N15">
-        <v>0.04768590080853308</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5110067382687262</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7592613098095236</v>
+        <v>0.05219706939445246</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4735543178554451</v>
+      </c>
+      <c r="R15">
+        <v>0.7433581190633944</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.092995709177956</v>
+        <v>3.728588930599187</v>
       </c>
       <c r="C16">
-        <v>1.448599182165992</v>
+        <v>1.52559187543676</v>
       </c>
       <c r="D16">
-        <v>0.04012375494158604</v>
+        <v>0.04178221562473539</v>
       </c>
       <c r="E16">
-        <v>0.1483187216029016</v>
+        <v>0.1514707082462152</v>
       </c>
       <c r="F16">
-        <v>1.775374504758119</v>
+        <v>1.487213252672632</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1620866599390922</v>
+        <v>0.1620747112794731</v>
       </c>
       <c r="I16">
-        <v>0.002319432803013832</v>
+        <v>0.002872901131707906</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.8069067294644086</v>
+        <v>0.6193739291068638</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2528701124283188</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2214293035167216</v>
       </c>
       <c r="N16">
-        <v>0.04656575617747905</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4811097288898338</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7862049057267306</v>
+        <v>0.05141966836830036</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4464703410809889</v>
+      </c>
+      <c r="R16">
+        <v>0.7654144998429508</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.99790447137417</v>
+        <v>3.636220404936921</v>
       </c>
       <c r="C17">
-        <v>1.381825240165881</v>
+        <v>1.457439380762821</v>
       </c>
       <c r="D17">
-        <v>0.04005131919555183</v>
+        <v>0.04048202010253021</v>
       </c>
       <c r="E17">
-        <v>0.1300178252741944</v>
+        <v>0.1330218402566636</v>
       </c>
       <c r="F17">
-        <v>1.792210255777078</v>
+        <v>1.501016968559938</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1242871271909536</v>
+        <v>0.1242361822716305</v>
       </c>
       <c r="I17">
-        <v>0.00202559729005003</v>
+        <v>0.002573215665379713</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.8369433018151682</v>
+        <v>0.6441571796875465</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2649889834731027</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2269394906871227</v>
       </c>
       <c r="N17">
-        <v>0.05606890889588456</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4909564760919167</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8105993773035238</v>
+        <v>0.06218181793425615</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4558190980217631</v>
+      </c>
+      <c r="R17">
+        <v>0.7761992376422562</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.051735048269791</v>
+        <v>3.668683584011603</v>
       </c>
       <c r="C18">
-        <v>1.33759410977126</v>
+        <v>1.41576780722454</v>
       </c>
       <c r="D18">
-        <v>0.04040960961072804</v>
+        <v>0.03878563510745536</v>
       </c>
       <c r="E18">
-        <v>0.1063202329545341</v>
+        <v>0.1089782906863128</v>
       </c>
       <c r="F18">
-        <v>1.909605848714122</v>
+        <v>1.593666635108804</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07145978563134747</v>
+        <v>0.07140291949662725</v>
       </c>
       <c r="I18">
-        <v>0.001741233820373722</v>
+        <v>0.002229871095134506</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.9217772609018766</v>
+        <v>0.7075771245646294</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2899854926941288</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2491417976965593</v>
       </c>
       <c r="N18">
-        <v>0.08378551321332495</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5380993470499646</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8441337013749628</v>
+        <v>0.09223160039672251</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.499418044218622</v>
+      </c>
+      <c r="R18">
+        <v>0.7846124146924796</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.209144904230868</v>
+        <v>3.787871492273155</v>
       </c>
       <c r="C19">
-        <v>1.317126296503886</v>
+        <v>1.400635102745696</v>
       </c>
       <c r="D19">
-        <v>0.04211458193054174</v>
+        <v>0.03779283245239284</v>
       </c>
       <c r="E19">
-        <v>0.08419024638762806</v>
+        <v>0.08631273835773712</v>
       </c>
       <c r="F19">
-        <v>2.093318710031085</v>
+        <v>1.737160141605045</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02619887165987933</v>
+        <v>0.02617354256330628</v>
       </c>
       <c r="I19">
-        <v>0.001968804588760698</v>
+        <v>0.002478414018582953</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>1.042844747265875</v>
+        <v>0.7956696778867283</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3228903987941862</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2823913239747426</v>
       </c>
       <c r="N19">
-        <v>0.1365187359021007</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.613320098601136</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8924833531141587</v>
+        <v>0.1482242135129894</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5687701075736697</v>
+      </c>
+      <c r="R19">
+        <v>0.7990581594065711</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.678862972657782</v>
+        <v>4.169492746245055</v>
       </c>
       <c r="C20">
-        <v>1.359367394542232</v>
+        <v>1.456003429404348</v>
       </c>
       <c r="D20">
-        <v>0.04733179135153698</v>
+        <v>0.03827773336322982</v>
       </c>
       <c r="E20">
-        <v>0.06591703784671665</v>
+        <v>0.0669601595764675</v>
       </c>
       <c r="F20">
-        <v>2.477276334763289</v>
+        <v>2.034960471712154</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0003205179027632177</v>
+        <v>0.0003465197893701699</v>
       </c>
       <c r="I20">
-        <v>0.002973998932665367</v>
+        <v>0.003438235696933134</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>1.274260778428982</v>
+        <v>0.9593742067183868</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3787244736270097</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.350745205056306</v>
       </c>
       <c r="N20">
-        <v>0.2561059698588082</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.76811396369839</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.980305650805569</v>
+        <v>0.2735325177007439</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7108563017365626</v>
+      </c>
+      <c r="R20">
+        <v>0.8257300225147617</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.304022736612183</v>
+        <v>4.709159778582261</v>
       </c>
       <c r="C21">
-        <v>1.542917567177426</v>
+        <v>1.654595377373823</v>
       </c>
       <c r="D21">
-        <v>0.04810507042679646</v>
+        <v>0.03824537387982563</v>
       </c>
       <c r="E21">
-        <v>0.07354407400366014</v>
+        <v>0.07406439915189189</v>
       </c>
       <c r="F21">
-        <v>2.768609772344576</v>
+        <v>2.258507813406496</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.001525041757266088</v>
+        <v>0.001401573386008215</v>
       </c>
       <c r="I21">
-        <v>0.005914794172489302</v>
+        <v>0.006003957922733782</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.396637133598276</v>
+        <v>1.036323561161979</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3923895477054486</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3986279164808835</v>
       </c>
       <c r="N21">
-        <v>0.2971684066716733</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8757500717488966</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9588796002792677</v>
+        <v>0.3161043204541727</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.808510964342581</v>
+      </c>
+      <c r="R21">
+        <v>0.7880905077129619</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.709637953200343</v>
+        <v>5.059671167640715</v>
       </c>
       <c r="C22">
-        <v>1.663926483018201</v>
+        <v>1.785027724150268</v>
       </c>
       <c r="D22">
-        <v>0.04841883043634887</v>
+        <v>0.03816160359747212</v>
       </c>
       <c r="E22">
-        <v>0.07946844150418642</v>
+        <v>0.07965261347487385</v>
       </c>
       <c r="F22">
-        <v>2.954305636032018</v>
+        <v>2.401243159204341</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.002964481591894552</v>
+        <v>0.002624280495475473</v>
       </c>
       <c r="I22">
-        <v>0.008352917157125717</v>
+        <v>0.00793536896810032</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.472948637373861</v>
+        <v>1.084157028296218</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3999176124752211</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4300191553065744</v>
       </c>
       <c r="N22">
-        <v>0.3176712515829507</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9411074618933242</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9426606644148237</v>
+        <v>0.3372821933503332</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8675895738281056</v>
+      </c>
+      <c r="R22">
+        <v>0.7628844514583086</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.501525457733464</v>
+        <v>4.8800513425399</v>
       </c>
       <c r="C23">
-        <v>1.597637186869861</v>
+        <v>1.713736797292313</v>
       </c>
       <c r="D23">
-        <v>0.04841953281672673</v>
+        <v>0.03825683844574979</v>
       </c>
       <c r="E23">
-        <v>0.0763019767066897</v>
+        <v>0.07666513230777561</v>
       </c>
       <c r="F23">
-        <v>2.862243686925609</v>
+        <v>2.331028373776036</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.002150262891842614</v>
+        <v>0.00193559962248413</v>
       </c>
       <c r="I23">
-        <v>0.006717688980848457</v>
+        <v>0.006523140716861775</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.437325108855731</v>
+        <v>1.062679563521911</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3973614398621095</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4148076182276768</v>
       </c>
       <c r="N23">
-        <v>0.3065165126058815</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9071532369402462</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.953988842350519</v>
+        <v>0.3257738148537186</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.8369010455799497</v>
+      </c>
+      <c r="R23">
+        <v>0.7776226861843583</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.704214674519449</v>
+        <v>4.189634189251592</v>
       </c>
       <c r="C24">
-        <v>1.353221945632413</v>
+        <v>1.45031081082891</v>
       </c>
       <c r="D24">
-        <v>0.04808689530764454</v>
+        <v>0.03848681731140591</v>
       </c>
       <c r="E24">
-        <v>0.06473702489165767</v>
+        <v>0.06570022586504365</v>
       </c>
       <c r="F24">
-        <v>2.50763799707488</v>
+        <v>2.059302324668366</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0002307835998420771</v>
+        <v>0.0002567502346524364</v>
       </c>
       <c r="I24">
-        <v>0.002540754141257651</v>
+        <v>0.002900691445716141</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>1.296143653660906</v>
+        <v>0.9758945302792199</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3849433418879755</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3569292340782653</v>
       </c>
       <c r="N24">
-        <v>0.2650009040411021</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7777598261829723</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9936482515107556</v>
+        <v>0.2828416684369159</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7197077006571035</v>
+      </c>
+      <c r="R24">
+        <v>0.8324840086211474</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.85254594659034</v>
+        <v>3.448255187965003</v>
       </c>
       <c r="C25">
-        <v>1.096714323830042</v>
+        <v>1.173346032390498</v>
       </c>
       <c r="D25">
-        <v>0.04759824348821873</v>
+        <v>0.03862515754947449</v>
       </c>
       <c r="E25">
-        <v>0.0530247236420287</v>
+        <v>0.05449017601721984</v>
       </c>
       <c r="F25">
-        <v>2.136001032628343</v>
+        <v>1.773812125403111</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0003767473890841089</v>
+        <v>0.0002283931703144226</v>
       </c>
       <c r="I25">
-        <v>0.001076412499246615</v>
+        <v>0.001315099818190113</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>1.147947190206168</v>
+        <v>0.8845362950573019</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3706176408921138</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2994012504328936</v>
       </c>
       <c r="N25">
-        <v>0.2209035340811027</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6394960794083531</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1.038703546643532</v>
+        <v>0.237102759661866</v>
       </c>
       <c r="Q25">
+        <v>0.5939996852736016</v>
+      </c>
+      <c r="R25">
+        <v>0.8939715392271097</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
